--- a/Inflation/Daten/su-d-05.02.11.xlsx
+++ b/Inflation/Daten/su-d-05.02.11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\25_LIK_Prod-Proj\LIK_Output\PRESTA-Output\Assets\10_XLS-Tabellen\2022-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\25_LIK_Prod-Proj\LIK_Output\PRESTA-Output\Assets\10_XLS-Tabellen\2022-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13438,10 +13438,10 @@
         <v>4258</v>
       </c>
       <c r="O4" s="18">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="P4" s="18">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>4240</v>
@@ -13495,19 +13495,19 @@
         <v>100</v>
       </c>
       <c r="O5" s="10">
-        <v>103.3351</v>
+        <v>104.0068</v>
       </c>
       <c r="P5" s="10">
-        <v>104.0068</v>
+        <v>104.5312</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="S5" s="8">
-        <v>0.65</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -13554,19 +13554,19 @@
         <v>12.608000000000001</v>
       </c>
       <c r="O6" s="10">
-        <v>99.493899999999996</v>
+        <v>101.32089999999999</v>
       </c>
       <c r="P6" s="10">
-        <v>101.32089999999999</v>
+        <v>102.40470000000001</v>
       </c>
       <c r="Q6" s="9">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R6" s="13">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="S6" s="8">
-        <v>0.23</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -13613,19 +13613,19 @@
         <v>11.555</v>
       </c>
       <c r="O7" s="10">
-        <v>99.361599999999996</v>
+        <v>101.0698</v>
       </c>
       <c r="P7" s="10">
-        <v>101.0698</v>
+        <v>102.3113</v>
       </c>
       <c r="Q7" s="9">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="R7" s="13">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="S7" s="8">
-        <v>0.19700000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -13672,19 +13672,19 @@
         <v>1.879</v>
       </c>
       <c r="O8" s="10">
-        <v>101.2073</v>
+        <v>101.6434</v>
       </c>
       <c r="P8" s="10">
-        <v>101.6434</v>
+        <v>102.4075</v>
       </c>
       <c r="Q8" s="9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R8" s="13">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="S8" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -13731,19 +13731,19 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O9" s="10">
-        <v>98.218100000000007</v>
+        <v>97.455299999999994</v>
       </c>
       <c r="P9" s="10">
-        <v>97.455299999999994</v>
+        <v>105.27070000000001</v>
       </c>
       <c r="Q9" s="9">
-        <v>-0.8</v>
+        <v>8</v>
       </c>
       <c r="R9" s="13">
-        <v>-0.8</v>
+        <v>3.5</v>
       </c>
       <c r="S9" s="8">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -13790,19 +13790,19 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O10" s="10">
-        <v>97.983400000000003</v>
+        <v>101.45099999999999</v>
       </c>
       <c r="P10" s="10">
-        <v>101.45099999999999</v>
+        <v>100.0737</v>
       </c>
       <c r="Q10" s="9">
-        <v>3.5</v>
+        <v>-1.4</v>
       </c>
       <c r="R10" s="13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S10" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -13847,19 +13847,19 @@
         <v>1.28</v>
       </c>
       <c r="O11" s="10">
-        <v>100.59059999999999</v>
+        <v>101.2936</v>
       </c>
       <c r="P11" s="10">
-        <v>101.2936</v>
+        <v>101.6653</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="R11" s="13">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="S11" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -13906,19 +13906,19 @@
         <v>0.442</v>
       </c>
       <c r="O12" s="10">
-        <v>100.7782</v>
+        <v>102.3228</v>
       </c>
       <c r="P12" s="10">
-        <v>102.3228</v>
+        <v>102.4558</v>
       </c>
       <c r="Q12" s="9">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="R12" s="13">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="S12" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -13965,19 +13965,19 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="O13" s="10">
-        <v>100.4293</v>
+        <v>100.69499999999999</v>
       </c>
       <c r="P13" s="10">
-        <v>100.69499999999999</v>
+        <v>101.1904</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R13" s="13">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="S13" s="8">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -14022,19 +14022,19 @@
         <v>0.192</v>
       </c>
       <c r="O14" s="10">
-        <v>99.343100000000007</v>
+        <v>100.8284</v>
       </c>
       <c r="P14" s="10">
-        <v>100.8284</v>
+        <v>100.96040000000001</v>
       </c>
       <c r="Q14" s="9">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="R14" s="13">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="S14" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -14079,19 +14079,19 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="O15" s="10">
-        <v>99.245099999999994</v>
+        <v>99.549899999999994</v>
       </c>
       <c r="P15" s="10">
-        <v>99.549899999999994</v>
+        <v>99.427300000000002</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="R15" s="13">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="S15" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -14136,19 +14136,19 @@
         <v>0.309</v>
       </c>
       <c r="O16" s="10">
-        <v>102.3758</v>
+        <v>101.8368</v>
       </c>
       <c r="P16" s="10">
-        <v>101.8368</v>
+        <v>103.2376</v>
       </c>
       <c r="Q16" s="9">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
       <c r="R16" s="13">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="S16" s="8">
-        <v>-2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -14195,19 +14195,19 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="O17" s="10">
-        <v>98.691000000000003</v>
+        <v>94.18</v>
       </c>
       <c r="P17" s="10">
-        <v>94.18</v>
+        <v>100.4239</v>
       </c>
       <c r="Q17" s="9">
-        <v>-4.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="R17" s="13">
-        <v>-4.5999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="S17" s="8">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -14254,16 +14254,16 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="O18" s="10">
-        <v>107.0745</v>
+        <v>108.08029999999999</v>
       </c>
       <c r="P18" s="10">
-        <v>108.08029999999999</v>
+        <v>108.9666</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="R18" s="13">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="S18" s="8">
         <v>2E-3</v>
@@ -14313,19 +14313,19 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="O19" s="10">
-        <v>104.6739</v>
+        <v>104.0508</v>
       </c>
       <c r="P19" s="10">
-        <v>104.0508</v>
+        <v>106.1511</v>
       </c>
       <c r="Q19" s="9">
-        <v>-0.6</v>
+        <v>2</v>
       </c>
       <c r="R19" s="13">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="S19" s="8">
-        <v>-1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -14372,19 +14372,19 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="O20" s="10">
-        <v>101.11539999999999</v>
+        <v>99.900400000000005</v>
       </c>
       <c r="P20" s="10">
-        <v>99.900400000000005</v>
+        <v>99.461399999999998</v>
       </c>
       <c r="Q20" s="9">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="R20" s="13">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="S20" s="8">
-        <v>-2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -14431,19 +14431,19 @@
         <v>2.6269999999999998</v>
       </c>
       <c r="O21" s="10">
-        <v>98.608999999999995</v>
+        <v>99.763000000000005</v>
       </c>
       <c r="P21" s="10">
-        <v>99.763000000000005</v>
+        <v>99.734999999999999</v>
       </c>
       <c r="Q21" s="9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13">
-        <v>-0.5</v>
+        <v>1.6</v>
       </c>
       <c r="S21" s="8">
-        <v>0.03</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -14488,19 +14488,19 @@
         <v>1.462</v>
       </c>
       <c r="O22" s="10">
-        <v>100.1315</v>
+        <v>101.2128</v>
       </c>
       <c r="P22" s="10">
-        <v>101.2128</v>
+        <v>101.5141</v>
       </c>
       <c r="Q22" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="R22" s="13">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="S22" s="8">
-        <v>1.6E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -14547,19 +14547,19 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="O23" s="10">
-        <v>101.33329999999999</v>
+        <v>102.02630000000001</v>
       </c>
       <c r="P23" s="10">
-        <v>102.02630000000001</v>
+        <v>102.863</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R23" s="13">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="S23" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -14604,19 +14604,19 @@
         <v>0.48</v>
       </c>
       <c r="O24" s="10">
-        <v>101.3488</v>
+        <v>101.6326</v>
       </c>
       <c r="P24" s="10">
-        <v>101.6326</v>
+        <v>102.3563</v>
       </c>
       <c r="Q24" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="R24" s="13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S24" s="8">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -14661,19 +14661,19 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O25" s="10">
-        <v>102.9203</v>
+        <v>105.21850000000001</v>
       </c>
       <c r="P25" s="10">
-        <v>105.21850000000001</v>
+        <v>106.5091</v>
       </c>
       <c r="Q25" s="9">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="R25" s="13">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="S25" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -14720,19 +14720,19 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="O26" s="10">
-        <v>95.601100000000002</v>
+        <v>97.281899999999993</v>
       </c>
       <c r="P26" s="10">
-        <v>97.281899999999993</v>
+        <v>97.407200000000003</v>
       </c>
       <c r="Q26" s="9">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="R26" s="13">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -14779,19 +14779,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O27" s="10">
-        <v>107.11320000000001</v>
+        <v>107.7831</v>
       </c>
       <c r="P27" s="10">
-        <v>107.7831</v>
+        <v>107.25369999999999</v>
       </c>
       <c r="Q27" s="9">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="R27" s="13">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="S27" s="8">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -14838,19 +14838,19 @@
         <v>0.432</v>
       </c>
       <c r="O28" s="10">
-        <v>99.581500000000005</v>
+        <v>100.95440000000001</v>
       </c>
       <c r="P28" s="10">
-        <v>100.95440000000001</v>
+        <v>100.76049999999999</v>
       </c>
       <c r="Q28" s="9">
-        <v>1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="R28" s="13">
-        <v>-0.3</v>
+        <v>2.4</v>
       </c>
       <c r="S28" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -14897,16 +14897,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O29" s="10">
-        <v>101.3558</v>
+        <v>101.664</v>
       </c>
       <c r="P29" s="10">
-        <v>101.664</v>
+        <v>102.41549999999999</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="R29" s="13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S29" s="8">
         <v>0</v>
@@ -14956,19 +14956,19 @@
         <v>1.165</v>
       </c>
       <c r="O30" s="10">
-        <v>96.764899999999997</v>
+        <v>98.006</v>
       </c>
       <c r="P30" s="10">
-        <v>98.006</v>
+        <v>97.581999999999994</v>
       </c>
       <c r="Q30" s="9">
-        <v>1.3</v>
+        <v>-0.4</v>
       </c>
       <c r="R30" s="13">
-        <v>-1.6</v>
+        <v>0.3</v>
       </c>
       <c r="S30" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -15015,19 +15015,19 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="O31" s="10">
-        <v>95.3767</v>
+        <v>96.208200000000005</v>
       </c>
       <c r="P31" s="10">
-        <v>96.208200000000005</v>
+        <v>96.340800000000002</v>
       </c>
       <c r="Q31" s="9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="R31" s="13">
-        <v>-2.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="S31" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -15072,19 +15072,19 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="O32" s="10">
-        <v>97.762500000000003</v>
+        <v>99.304199999999994</v>
       </c>
       <c r="P32" s="10">
-        <v>99.304199999999994</v>
+        <v>98.471699999999998</v>
       </c>
       <c r="Q32" s="9">
-        <v>1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="R32" s="13">
-        <v>-1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="S32" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -15131,19 +15131,19 @@
         <v>0.496</v>
       </c>
       <c r="O33" s="10">
-        <v>96.889600000000002</v>
+        <v>98.467500000000001</v>
       </c>
       <c r="P33" s="10">
-        <v>98.467500000000001</v>
+        <v>97.363299999999995</v>
       </c>
       <c r="Q33" s="9">
-        <v>1.6</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R33" s="13">
-        <v>-2.2999999999999998</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S33" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -15190,19 +15190,19 @@
         <v>0.185</v>
       </c>
       <c r="O34" s="10">
-        <v>99.927899999999994</v>
+        <v>101.366</v>
       </c>
       <c r="P34" s="10">
-        <v>101.366</v>
+        <v>101.28270000000001</v>
       </c>
       <c r="Q34" s="9">
-        <v>1.4</v>
+        <v>-0.1</v>
       </c>
       <c r="R34" s="13">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="S34" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -15249,19 +15249,19 @@
         <v>0.5</v>
       </c>
       <c r="O35" s="10">
-        <v>100.369</v>
+        <v>102.3014</v>
       </c>
       <c r="P35" s="10">
-        <v>102.3014</v>
+        <v>102.0716</v>
       </c>
       <c r="Q35" s="9">
-        <v>1.9</v>
+        <v>-0.2</v>
       </c>
       <c r="R35" s="13">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="S35" s="8">
-        <v>0.01</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -15308,19 +15308,19 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="O36" s="10">
-        <v>100.77379999999999</v>
+        <v>103.1152</v>
       </c>
       <c r="P36" s="10">
-        <v>103.1152</v>
+        <v>103.4752</v>
       </c>
       <c r="Q36" s="9">
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="R36" s="13">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="S36" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -15367,19 +15367,19 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O37" s="10">
-        <v>98.135599999999997</v>
+        <v>100.69499999999999</v>
       </c>
       <c r="P37" s="10">
-        <v>100.69499999999999</v>
+        <v>100.3245</v>
       </c>
       <c r="Q37" s="9">
-        <v>2.6</v>
+        <v>-0.4</v>
       </c>
       <c r="R37" s="13">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="S37" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -15426,19 +15426,19 @@
         <v>0.13</v>
       </c>
       <c r="O38" s="10">
-        <v>100.6579</v>
+        <v>101.30110000000001</v>
       </c>
       <c r="P38" s="10">
-        <v>101.30110000000001</v>
+        <v>99.777299999999997</v>
       </c>
       <c r="Q38" s="9">
-        <v>0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="R38" s="13">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="S38" s="8">
-        <v>1E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -15485,19 +15485,19 @@
         <v>1.891</v>
       </c>
       <c r="O39" s="10">
-        <v>100.2085</v>
+        <v>102.1144</v>
       </c>
       <c r="P39" s="10">
-        <v>102.1144</v>
+        <v>102.0227</v>
       </c>
       <c r="Q39" s="9">
-        <v>1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="R39" s="13">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S39" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -15542,19 +15542,19 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="O40" s="10">
-        <v>101.2985</v>
+        <v>104.3098</v>
       </c>
       <c r="P40" s="10">
-        <v>104.3098</v>
+        <v>104.2812</v>
       </c>
       <c r="Q40" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R40" s="13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S40" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -15601,19 +15601,19 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O41" s="10">
-        <v>101.77500000000001</v>
+        <v>104.7701</v>
       </c>
       <c r="P41" s="10">
-        <v>104.7701</v>
+        <v>104.54130000000001</v>
       </c>
       <c r="Q41" s="9">
-        <v>2.9</v>
+        <v>-0.2</v>
       </c>
       <c r="R41" s="13">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="S41" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -15660,19 +15660,19 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="O42" s="10">
-        <v>103.5155</v>
+        <v>106.7303</v>
       </c>
       <c r="P42" s="10">
-        <v>106.7303</v>
+        <v>106.7167</v>
       </c>
       <c r="Q42" s="9">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="13">
         <v>3.6</v>
       </c>
       <c r="S42" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -15719,19 +15719,19 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="O43" s="10">
-        <v>100.0243</v>
+        <v>102.9628</v>
       </c>
       <c r="P43" s="10">
-        <v>102.9628</v>
+        <v>103.06189999999999</v>
       </c>
       <c r="Q43" s="9">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="R43" s="13">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="S43" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -15778,19 +15778,19 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="O44" s="10">
-        <v>99.279799999999994</v>
+        <v>100.8296</v>
       </c>
       <c r="P44" s="10">
-        <v>100.8296</v>
+        <v>100.6742</v>
       </c>
       <c r="Q44" s="9">
-        <v>1.6</v>
+        <v>-0.2</v>
       </c>
       <c r="R44" s="13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="S44" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -15835,19 +15835,19 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="O45" s="10">
-        <v>99.126800000000003</v>
+        <v>100.7484</v>
       </c>
       <c r="P45" s="10">
-        <v>100.7484</v>
+        <v>100.13039999999999</v>
       </c>
       <c r="Q45" s="9">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="R45" s="13">
         <v>0.1</v>
       </c>
       <c r="S45" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -15892,19 +15892,19 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="O46" s="10">
-        <v>99.523499999999999</v>
+        <v>100.9579</v>
       </c>
       <c r="P46" s="10">
-        <v>100.9579</v>
+        <v>101.5458</v>
       </c>
       <c r="Q46" s="9">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="R46" s="13">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="S46" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -15951,19 +15951,19 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="O47" s="10">
-        <v>101.40089999999999</v>
+        <v>103.2667</v>
       </c>
       <c r="P47" s="10">
-        <v>103.2667</v>
+        <v>103.09220000000001</v>
       </c>
       <c r="Q47" s="9">
-        <v>1.8</v>
+        <v>-0.2</v>
       </c>
       <c r="R47" s="13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S47" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -16008,19 +16008,19 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O48" s="10">
-        <v>100.5013</v>
+        <v>101.0134</v>
       </c>
       <c r="P48" s="10">
-        <v>101.0134</v>
+        <v>101.0531</v>
       </c>
       <c r="Q48" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R48" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S48" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -16065,19 +16065,19 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O49" s="10">
-        <v>102.2454</v>
+        <v>105.4152</v>
       </c>
       <c r="P49" s="10">
-        <v>105.4152</v>
+        <v>105.03440000000001</v>
       </c>
       <c r="Q49" s="9">
-        <v>3.1</v>
+        <v>-0.4</v>
       </c>
       <c r="R49" s="13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="S49" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -16124,19 +16124,19 @@
         <v>0.219</v>
       </c>
       <c r="O50" s="10">
-        <v>100.4765</v>
+        <v>101.75490000000001</v>
       </c>
       <c r="P50" s="10">
-        <v>101.75490000000001</v>
+        <v>101.91549999999999</v>
       </c>
       <c r="Q50" s="9">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="R50" s="13">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="S50" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -16183,19 +16183,19 @@
         <v>0.308</v>
       </c>
       <c r="O51" s="10">
-        <v>100.71980000000001</v>
+        <v>105.1563</v>
       </c>
       <c r="P51" s="10">
-        <v>105.1563</v>
+        <v>106.4251</v>
       </c>
       <c r="Q51" s="9">
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="R51" s="13">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="S51" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -16242,19 +16242,19 @@
         <v>0.161</v>
       </c>
       <c r="O52" s="10">
-        <v>103.5252</v>
+        <v>106.7764</v>
       </c>
       <c r="P52" s="10">
-        <v>106.7764</v>
+        <v>109.3107</v>
       </c>
       <c r="Q52" s="9">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R52" s="13">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="S52" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -16301,19 +16301,19 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="O53" s="10">
-        <v>97.859300000000005</v>
+        <v>103.5395</v>
       </c>
       <c r="P53" s="10">
-        <v>103.5395</v>
+        <v>103.485</v>
       </c>
       <c r="Q53" s="9">
-        <v>5.8</v>
+        <v>-0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="S53" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -16360,16 +16360,16 @@
         <v>2.3E-2</v>
       </c>
       <c r="O54" s="10">
-        <v>105.1138</v>
+        <v>107.60509999999999</v>
       </c>
       <c r="P54" s="10">
-        <v>107.60509999999999</v>
+        <v>109.74</v>
       </c>
       <c r="Q54" s="9">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="R54" s="13">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="S54" s="8">
         <v>1E-3</v>
@@ -16419,19 +16419,19 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O55" s="10">
-        <v>89.136099999999999</v>
+        <v>97.683899999999994</v>
       </c>
       <c r="P55" s="10">
-        <v>97.683899999999994</v>
+        <v>97.112300000000005</v>
       </c>
       <c r="Q55" s="9">
-        <v>9.6</v>
+        <v>-0.6</v>
       </c>
       <c r="R55" s="13">
-        <v>0.4</v>
+        <v>7.6</v>
       </c>
       <c r="S55" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -16478,19 +16478,19 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="O56" s="10">
-        <v>108.3503</v>
+        <v>111.0795</v>
       </c>
       <c r="P56" s="10">
-        <v>111.0795</v>
+        <v>110.82429999999999</v>
       </c>
       <c r="Q56" s="9">
-        <v>2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="R56" s="13">
-        <v>16.899999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="S56" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -16535,19 +16535,19 @@
         <v>2.6269999999999998</v>
       </c>
       <c r="O57" s="10">
-        <v>97.134799999999998</v>
+        <v>99.736800000000002</v>
       </c>
       <c r="P57" s="10">
-        <v>99.736800000000002</v>
+        <v>104.6054</v>
       </c>
       <c r="Q57" s="9">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R57" s="13">
-        <v>-1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="S57" s="8">
-        <v>6.9000000000000006E-2</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -16594,19 +16594,19 @@
         <v>1.149</v>
       </c>
       <c r="O58" s="10">
-        <v>91.823899999999995</v>
+        <v>94.597099999999998</v>
       </c>
       <c r="P58" s="10">
-        <v>94.597099999999998</v>
+        <v>96.760199999999998</v>
       </c>
       <c r="Q58" s="9">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R58" s="13">
-        <v>-3</v>
+        <v>0.2</v>
       </c>
       <c r="S58" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -16653,19 +16653,19 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="O59" s="10">
-        <v>89.061599999999999</v>
+        <v>94.0685</v>
       </c>
       <c r="P59" s="10">
-        <v>94.0685</v>
+        <v>95.558700000000002</v>
       </c>
       <c r="Q59" s="9">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="R59" s="13">
-        <v>-2.9</v>
+        <v>-0.8</v>
       </c>
       <c r="S59" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -16710,19 +16710,19 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O60" s="10">
-        <v>94.176000000000002</v>
+        <v>98.783900000000003</v>
       </c>
       <c r="P60" s="10">
-        <v>98.783900000000003</v>
+        <v>101.4815</v>
       </c>
       <c r="Q60" s="9">
-        <v>4.9000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="R60" s="13">
-        <v>-10.199999999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="S60" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -16767,19 +16767,19 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="O61" s="10">
-        <v>94.012299999999996</v>
+        <v>107.6007</v>
       </c>
       <c r="P61" s="10">
-        <v>107.6007</v>
+        <v>100.73350000000001</v>
       </c>
       <c r="Q61" s="9">
-        <v>14.5</v>
+        <v>-6.4</v>
       </c>
       <c r="R61" s="13">
-        <v>-4.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="S61" s="8">
-        <v>1.9E-2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -16824,19 +16824,19 @@
         <v>0.155</v>
       </c>
       <c r="O62" s="10">
-        <v>100.47369999999999</v>
+        <v>100.4619</v>
       </c>
       <c r="P62" s="10">
-        <v>100.4619</v>
+        <v>98.971500000000006</v>
       </c>
       <c r="Q62" s="9">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R62" s="13">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="S62" s="8">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -16881,19 +16881,19 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="O63" s="10">
-        <v>94.813800000000001</v>
+        <v>94.8506</v>
       </c>
       <c r="P63" s="10">
-        <v>94.8506</v>
+        <v>92.501199999999997</v>
       </c>
       <c r="Q63" s="9">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R63" s="13">
-        <v>-5.2</v>
+        <v>-6.3</v>
       </c>
       <c r="S63" s="8">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -16938,16 +16938,16 @@
         <v>0.109</v>
       </c>
       <c r="O64" s="10">
-        <v>103.60509999999999</v>
+        <v>103.2217</v>
       </c>
       <c r="P64" s="10">
-        <v>103.2217</v>
+        <v>103.0145</v>
       </c>
       <c r="Q64" s="9">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="R64" s="13">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="S64" s="8">
         <v>0</v>
@@ -16995,19 +16995,19 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="O65" s="10">
-        <v>59.030200000000001</v>
+        <v>62.212400000000002</v>
       </c>
       <c r="P65" s="10">
-        <v>62.212400000000002</v>
+        <v>67.722399999999993</v>
       </c>
       <c r="Q65" s="9">
-        <v>5.4</v>
+        <v>8.9</v>
       </c>
       <c r="R65" s="13">
-        <v>-10.199999999999999</v>
+        <v>-11.8</v>
       </c>
       <c r="S65" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -17052,19 +17052,19 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="O66" s="10">
-        <v>98.99</v>
+        <v>120.8051</v>
       </c>
       <c r="P66" s="10">
-        <v>120.8051</v>
+        <v>143.18989999999999</v>
       </c>
       <c r="Q66" s="9">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="R66" s="13">
-        <v>15.6</v>
+        <v>17.3</v>
       </c>
       <c r="S66" s="8">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -17111,16 +17111,16 @@
         <v>0.01</v>
       </c>
       <c r="O67" s="10">
-        <v>114.6318</v>
+        <v>115.10590000000001</v>
       </c>
       <c r="P67" s="10">
-        <v>115.10590000000001</v>
+        <v>114.5814</v>
       </c>
       <c r="Q67" s="9">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="R67" s="13">
-        <v>15.9</v>
+        <v>11.1</v>
       </c>
       <c r="S67" s="8">
         <v>0</v>
@@ -17170,19 +17170,19 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="O68" s="10">
-        <v>98.863500000000002</v>
+        <v>94.388400000000004</v>
       </c>
       <c r="P68" s="10">
-        <v>94.388400000000004</v>
+        <v>99.141999999999996</v>
       </c>
       <c r="Q68" s="9">
-        <v>-4.5</v>
+        <v>5</v>
       </c>
       <c r="R68" s="13">
-        <v>-5.2</v>
+        <v>2.6</v>
       </c>
       <c r="S68" s="8">
-        <v>-1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -17229,19 +17229,19 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O69" s="10">
-        <v>101.9016</v>
+        <v>105.2668</v>
       </c>
       <c r="P69" s="10">
-        <v>105.2668</v>
+        <v>104.7786</v>
       </c>
       <c r="Q69" s="9">
-        <v>3.3</v>
+        <v>-0.5</v>
       </c>
       <c r="R69" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S69" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -17288,19 +17288,19 @@
         <v>1.478</v>
       </c>
       <c r="O70" s="10">
-        <v>101.39619999999999</v>
+        <v>103.8629</v>
       </c>
       <c r="P70" s="10">
-        <v>103.8629</v>
+        <v>110.88639999999999</v>
       </c>
       <c r="Q70" s="9">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="R70" s="13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S70" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -17347,19 +17347,19 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="O71" s="10">
-        <v>101.5733</v>
+        <v>105.3704</v>
       </c>
       <c r="P71" s="10">
-        <v>105.3704</v>
+        <v>114.9863</v>
       </c>
       <c r="Q71" s="9">
-        <v>3.7</v>
+        <v>9.1</v>
       </c>
       <c r="R71" s="13">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="S71" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -17404,19 +17404,19 @@
         <v>0.252</v>
       </c>
       <c r="O72" s="10">
-        <v>111.9316</v>
+        <v>117.5459</v>
       </c>
       <c r="P72" s="10">
-        <v>117.5459</v>
+        <v>139.19749999999999</v>
       </c>
       <c r="Q72" s="9">
-        <v>5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R72" s="13">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="S72" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -17461,19 +17461,19 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="O73" s="10">
-        <v>93.750100000000003</v>
+        <v>102.12520000000001</v>
       </c>
       <c r="P73" s="10">
-        <v>102.12520000000001</v>
+        <v>108.4532</v>
       </c>
       <c r="Q73" s="9">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="R73" s="13">
-        <v>-0.9</v>
+        <v>2.9</v>
       </c>
       <c r="S73" s="8">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -17518,19 +17518,19 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="O74" s="10">
-        <v>100.34520000000001</v>
+        <v>104.43640000000001</v>
       </c>
       <c r="P74" s="10">
-        <v>104.43640000000001</v>
+        <v>100.1028</v>
       </c>
       <c r="Q74" s="9">
-        <v>4.0999999999999996</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="R74" s="13">
-        <v>-2.9</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="S74" s="8">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -17575,19 +17575,19 @@
         <v>0.06</v>
       </c>
       <c r="O75" s="10">
-        <v>95.465400000000002</v>
+        <v>106.273</v>
       </c>
       <c r="P75" s="10">
-        <v>106.273</v>
+        <v>149.45689999999999</v>
       </c>
       <c r="Q75" s="9">
-        <v>11.3</v>
+        <v>40.6</v>
       </c>
       <c r="R75" s="13">
-        <v>7.8</v>
+        <v>-3.2</v>
       </c>
       <c r="S75" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -17632,19 +17632,19 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="O76" s="10">
-        <v>93.356399999999994</v>
+        <v>86.067099999999996</v>
       </c>
       <c r="P76" s="10">
-        <v>86.067099999999996</v>
+        <v>92.130899999999997</v>
       </c>
       <c r="Q76" s="9">
-        <v>-7.8</v>
+        <v>7</v>
       </c>
       <c r="R76" s="13">
-        <v>-13.6</v>
+        <v>-12.5</v>
       </c>
       <c r="S76" s="8">
-        <v>-6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -17689,19 +17689,19 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="O77" s="10">
-        <v>103.7931</v>
+        <v>99.342399999999998</v>
       </c>
       <c r="P77" s="10">
-        <v>99.342399999999998</v>
+        <v>102.4188</v>
       </c>
       <c r="Q77" s="9">
-        <v>-4.3</v>
+        <v>3.1</v>
       </c>
       <c r="R77" s="13">
-        <v>-1</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="S77" s="8">
-        <v>-6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -17748,16 +17748,16 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O78" s="10">
-        <v>100.4815</v>
+        <v>99.992800000000003</v>
       </c>
       <c r="P78" s="10">
-        <v>99.992800000000003</v>
+        <v>99.892700000000005</v>
       </c>
       <c r="Q78" s="9">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="R78" s="13">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="S78" s="8">
         <v>0</v>
@@ -17807,19 +17807,19 @@
         <v>0.184</v>
       </c>
       <c r="O79" s="10">
-        <v>103.0622</v>
+        <v>102.8823</v>
       </c>
       <c r="P79" s="10">
-        <v>102.8823</v>
+        <v>103.57729999999999</v>
       </c>
       <c r="Q79" s="9">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="R79" s="13">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="S79" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -17866,19 +17866,19 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="O80" s="10">
-        <v>98.493300000000005</v>
+        <v>99.445599999999999</v>
       </c>
       <c r="P80" s="10">
-        <v>99.445599999999999</v>
+        <v>102.1694</v>
       </c>
       <c r="Q80" s="9">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="R80" s="13">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="S80" s="8">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -17923,19 +17923,19 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="O81" s="10">
-        <v>97.035899999999998</v>
+        <v>97.093199999999996</v>
       </c>
       <c r="P81" s="10">
-        <v>97.093199999999996</v>
+        <v>101.5283</v>
       </c>
       <c r="Q81" s="9">
-        <v>0.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R81" s="13">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
       <c r="S81" s="8">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -17980,19 +17980,19 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O82" s="10">
-        <v>100.5167</v>
+        <v>102.7647</v>
       </c>
       <c r="P82" s="10">
-        <v>102.7647</v>
+        <v>103.00700000000001</v>
       </c>
       <c r="Q82" s="9">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="R82" s="13">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="S82" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -18039,19 +18039,19 @@
         <v>0.111</v>
       </c>
       <c r="O83" s="10">
-        <v>101.6901</v>
+        <v>99.607900000000001</v>
       </c>
       <c r="P83" s="10">
-        <v>99.607900000000001</v>
+        <v>102.1514</v>
       </c>
       <c r="Q83" s="9">
-        <v>-2</v>
+        <v>2.6</v>
       </c>
       <c r="R83" s="13">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S83" s="8">
-        <v>-2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -18098,19 +18098,19 @@
         <v>0.751</v>
       </c>
       <c r="O84" s="10">
-        <v>99.464699999999993</v>
+        <v>100.8511</v>
       </c>
       <c r="P84" s="10">
-        <v>100.8511</v>
+        <v>100.8706</v>
       </c>
       <c r="Q84" s="9">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="R84" s="13">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="S84" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -18157,16 +18157,16 @@
         <v>0.03</v>
       </c>
       <c r="O85" s="10">
-        <v>100.55970000000001</v>
+        <v>100.7458</v>
       </c>
       <c r="P85" s="10">
-        <v>100.7458</v>
+        <v>101.8223</v>
       </c>
       <c r="Q85" s="9">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R85" s="13">
-        <v>-2.7</v>
+        <v>-0.6</v>
       </c>
       <c r="S85" s="8">
         <v>0</v>
@@ -18216,19 +18216,19 @@
         <v>9.4E-2</v>
       </c>
       <c r="O86" s="10">
-        <v>100.3359</v>
+        <v>108.1541</v>
       </c>
       <c r="P86" s="10">
-        <v>108.1541</v>
+        <v>107.21</v>
       </c>
       <c r="Q86" s="9">
-        <v>7.8</v>
+        <v>-0.9</v>
       </c>
       <c r="R86" s="13">
-        <v>10.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="S86" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -18275,19 +18275,19 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="O87" s="10">
-        <v>99.3018</v>
+        <v>98.115099999999998</v>
       </c>
       <c r="P87" s="10">
-        <v>98.115099999999998</v>
+        <v>98.692099999999996</v>
       </c>
       <c r="Q87" s="9">
-        <v>-1.2</v>
+        <v>0.6</v>
       </c>
       <c r="R87" s="13">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="S87" s="8">
-        <v>-5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -18334,16 +18334,16 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="O88" s="10">
-        <v>98.991100000000003</v>
+        <v>98.827399999999997</v>
       </c>
       <c r="P88" s="10">
-        <v>98.827399999999997</v>
+        <v>99.3</v>
       </c>
       <c r="Q88" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R88" s="13">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="S88" s="8">
         <v>0</v>
@@ -18393,19 +18393,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="O89" s="10">
-        <v>99.532700000000006</v>
+        <v>105.45650000000001</v>
       </c>
       <c r="P89" s="10">
-        <v>105.45650000000001</v>
+        <v>103.9774</v>
       </c>
       <c r="Q89" s="9">
-        <v>6</v>
+        <v>-1.4</v>
       </c>
       <c r="R89" s="13">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="S89" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -18452,19 +18452,19 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="O90" s="10">
-        <v>101.242</v>
+        <v>103.3476</v>
       </c>
       <c r="P90" s="10">
-        <v>103.3476</v>
+        <v>103.25660000000001</v>
       </c>
       <c r="Q90" s="9">
-        <v>2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="R90" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S90" s="8">
-        <v>0.02</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -18511,19 +18511,19 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="O91" s="10">
-        <v>104.077</v>
+        <v>105.791</v>
       </c>
       <c r="P91" s="10">
-        <v>105.791</v>
+        <v>105.14660000000001</v>
       </c>
       <c r="Q91" s="9">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="R91" s="13">
         <v>3.5</v>
       </c>
       <c r="S91" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -18570,16 +18570,16 @@
         <v>6.2E-2</v>
       </c>
       <c r="O92" s="10">
-        <v>96.308899999999994</v>
+        <v>95.621099999999998</v>
       </c>
       <c r="P92" s="10">
-        <v>95.621099999999998</v>
+        <v>96.056899999999999</v>
       </c>
       <c r="Q92" s="9">
-        <v>-0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R92" s="13">
-        <v>-3.8</v>
+        <v>-1.7</v>
       </c>
       <c r="S92" s="8">
         <v>0</v>
@@ -18629,19 +18629,19 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O93" s="10">
-        <v>99.725999999999999</v>
+        <v>101.49169999999999</v>
       </c>
       <c r="P93" s="10">
-        <v>101.49169999999999</v>
+        <v>102.297</v>
       </c>
       <c r="Q93" s="9">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="R93" s="13">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S93" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -18688,19 +18688,19 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="O94" s="10">
-        <v>101.4157</v>
+        <v>103.24339999999999</v>
       </c>
       <c r="P94" s="10">
-        <v>103.24339999999999</v>
+        <v>102.8614</v>
       </c>
       <c r="Q94" s="9">
-        <v>1.8</v>
+        <v>-0.4</v>
       </c>
       <c r="R94" s="13">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="S94" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -18747,19 +18747,19 @@
         <v>0.317</v>
       </c>
       <c r="O95" s="10">
-        <v>99.800799999999995</v>
+        <v>103.0753</v>
       </c>
       <c r="P95" s="10">
-        <v>103.0753</v>
+        <v>103.4748</v>
       </c>
       <c r="Q95" s="9">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="R95" s="13">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="S95" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -18806,19 +18806,19 @@
         <v>1.0529999999999999</v>
       </c>
       <c r="O96" s="10">
-        <v>100.94029999999999</v>
+        <v>104.0603</v>
       </c>
       <c r="P96" s="10">
-        <v>104.0603</v>
+        <v>103.42789999999999</v>
       </c>
       <c r="Q96" s="9">
-        <v>3.1</v>
+        <v>-0.6</v>
       </c>
       <c r="R96" s="13">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S96" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -18865,19 +18865,19 @@
         <v>0.495</v>
       </c>
       <c r="O97" s="10">
-        <v>105.4722</v>
+        <v>109.2522</v>
       </c>
       <c r="P97" s="10">
-        <v>109.2522</v>
+        <v>108.6293</v>
       </c>
       <c r="Q97" s="9">
-        <v>3.6</v>
+        <v>-0.6</v>
       </c>
       <c r="R97" s="13">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="S97" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -18924,19 +18924,19 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="O98" s="10">
-        <v>106.9823</v>
+        <v>111.4932</v>
       </c>
       <c r="P98" s="10">
-        <v>111.4932</v>
+        <v>111.0677</v>
       </c>
       <c r="Q98" s="9">
-        <v>4.2</v>
+        <v>-0.4</v>
       </c>
       <c r="R98" s="13">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="S98" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -18983,19 +18983,19 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O99" s="10">
-        <v>98.725899999999996</v>
+        <v>99.748999999999995</v>
       </c>
       <c r="P99" s="10">
-        <v>99.748999999999995</v>
+        <v>98.163200000000003</v>
       </c>
       <c r="Q99" s="9">
-        <v>1</v>
+        <v>-1.6</v>
       </c>
       <c r="R99" s="13">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="S99" s="8">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -19042,16 +19042,16 @@
         <v>1.2E-2</v>
       </c>
       <c r="O100" s="10">
-        <v>99.710599999999999</v>
+        <v>99.616200000000006</v>
       </c>
       <c r="P100" s="10">
-        <v>99.616200000000006</v>
+        <v>99.649199999999993</v>
       </c>
       <c r="Q100" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="13">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="S100" s="8">
         <v>0</v>
@@ -19101,19 +19101,19 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="O101" s="10">
-        <v>97.284000000000006</v>
+        <v>99.856899999999996</v>
       </c>
       <c r="P101" s="10">
-        <v>99.856899999999996</v>
+        <v>99.215699999999998</v>
       </c>
       <c r="Q101" s="9">
-        <v>2.6</v>
+        <v>-0.6</v>
       </c>
       <c r="R101" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S101" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -19160,19 +19160,19 @@
         <v>0.115</v>
       </c>
       <c r="O102" s="10">
-        <v>100.5295</v>
+        <v>107.6728</v>
       </c>
       <c r="P102" s="10">
-        <v>107.6728</v>
+        <v>103.8698</v>
       </c>
       <c r="Q102" s="9">
-        <v>7.1</v>
+        <v>-3.5</v>
       </c>
       <c r="R102" s="13">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="S102" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -19219,19 +19219,19 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="O103" s="10">
-        <v>96.343000000000004</v>
+        <v>98.634699999999995</v>
       </c>
       <c r="P103" s="10">
-        <v>98.634699999999995</v>
+        <v>97.597700000000003</v>
       </c>
       <c r="Q103" s="9">
-        <v>2.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R103" s="13">
-        <v>-2.2999999999999998</v>
+        <v>-0.8</v>
       </c>
       <c r="S103" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -19278,19 +19278,19 @@
         <v>0.18</v>
       </c>
       <c r="O104" s="10">
-        <v>96.122299999999996</v>
+        <v>96.382400000000004</v>
       </c>
       <c r="P104" s="10">
-        <v>96.382400000000004</v>
+        <v>98.197900000000004</v>
       </c>
       <c r="Q104" s="9">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="R104" s="13">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="S104" s="8">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -19337,19 +19337,19 @@
         <v>3.4820000000000002</v>
       </c>
       <c r="O105" s="10">
-        <v>101.25239999999999</v>
+        <v>102.99160000000001</v>
       </c>
       <c r="P105" s="10">
-        <v>102.99160000000001</v>
+        <v>101.7574</v>
       </c>
       <c r="Q105" s="9">
-        <v>1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="R105" s="13">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="S105" s="8">
-        <v>5.8999999999999997E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -19396,19 +19396,19 @@
         <v>1.645</v>
       </c>
       <c r="O106" s="10">
-        <v>101.02030000000001</v>
+        <v>104.11709999999999</v>
       </c>
       <c r="P106" s="10">
-        <v>104.11709999999999</v>
+        <v>101.377</v>
       </c>
       <c r="Q106" s="9">
-        <v>3.1</v>
+        <v>-2.6</v>
       </c>
       <c r="R106" s="13">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="S106" s="8">
-        <v>0.05</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -19455,19 +19455,19 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="O107" s="10">
-        <v>103.0963</v>
+        <v>105.8356</v>
       </c>
       <c r="P107" s="10">
-        <v>105.8356</v>
+        <v>103.44199999999999</v>
       </c>
       <c r="Q107" s="9">
-        <v>2.7</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="R107" s="13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="S107" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -19512,19 +19512,19 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="O108" s="10">
-        <v>101.5771</v>
+        <v>104.8242</v>
       </c>
       <c r="P108" s="10">
-        <v>104.8242</v>
+        <v>102.7595</v>
       </c>
       <c r="Q108" s="9">
-        <v>3.2</v>
+        <v>-2</v>
       </c>
       <c r="R108" s="13">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="S108" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -19569,19 +19569,19 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="O109" s="10">
-        <v>105.62949999999999</v>
+        <v>107.5097</v>
       </c>
       <c r="P109" s="10">
-        <v>107.5097</v>
+        <v>104.5611</v>
       </c>
       <c r="Q109" s="9">
-        <v>1.8</v>
+        <v>-2.7</v>
       </c>
       <c r="R109" s="13">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S109" s="8">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -19628,19 +19628,19 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="O110" s="10">
-        <v>101.3466</v>
+        <v>104.71599999999999</v>
       </c>
       <c r="P110" s="10">
-        <v>104.71599999999999</v>
+        <v>101.2324</v>
       </c>
       <c r="Q110" s="9">
-        <v>3.3</v>
+        <v>-3.3</v>
       </c>
       <c r="R110" s="13">
-        <v>4.7</v>
+        <v>-0.5</v>
       </c>
       <c r="S110" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -19685,19 +19685,19 @@
         <v>0.751</v>
       </c>
       <c r="O111" s="10">
-        <v>100.3944</v>
+        <v>103.0515</v>
       </c>
       <c r="P111" s="10">
-        <v>103.0515</v>
+        <v>99.6965</v>
       </c>
       <c r="Q111" s="9">
-        <v>2.6</v>
+        <v>-3.3</v>
       </c>
       <c r="R111" s="13">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="S111" s="8">
-        <v>0.02</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -19742,19 +19742,19 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="O112" s="10">
-        <v>101.6096</v>
+        <v>105.935</v>
       </c>
       <c r="P112" s="10">
-        <v>105.935</v>
+        <v>99.856300000000005</v>
       </c>
       <c r="Q112" s="9">
-        <v>4.3</v>
+        <v>-5.7</v>
       </c>
       <c r="R112" s="13">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="S112" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -19799,19 +19799,19 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="O113" s="10">
-        <v>100.0014</v>
+        <v>102.1909</v>
       </c>
       <c r="P113" s="10">
-        <v>102.1909</v>
+        <v>99.598799999999997</v>
       </c>
       <c r="Q113" s="9">
-        <v>2.2000000000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="R113" s="13">
-        <v>3.3</v>
+        <v>-0.1</v>
       </c>
       <c r="S113" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -19856,19 +19856,19 @@
         <v>0.27</v>
       </c>
       <c r="O114" s="10">
-        <v>100.11660000000001</v>
+        <v>104.30200000000001</v>
       </c>
       <c r="P114" s="10">
-        <v>104.30200000000001</v>
+        <v>99.969300000000004</v>
       </c>
       <c r="Q114" s="9">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="R114" s="13">
-        <v>5.6</v>
+        <v>-1.2</v>
       </c>
       <c r="S114" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -19913,19 +19913,19 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="O115" s="10">
-        <v>100.4226</v>
+        <v>105.0766</v>
       </c>
       <c r="P115" s="10">
-        <v>105.0766</v>
+        <v>100.1696</v>
       </c>
       <c r="Q115" s="9">
-        <v>4.5999999999999996</v>
+        <v>-4.7</v>
       </c>
       <c r="R115" s="13">
-        <v>6.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S115" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -19970,19 +19970,19 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="O116" s="10">
-        <v>99.669700000000006</v>
+        <v>103.0938</v>
       </c>
       <c r="P116" s="10">
-        <v>103.0938</v>
+        <v>99.694400000000002</v>
       </c>
       <c r="Q116" s="9">
-        <v>3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="R116" s="13">
-        <v>4.4000000000000004</v>
+        <v>-1.3</v>
       </c>
       <c r="S116" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -20027,19 +20027,19 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O117" s="10">
-        <v>109.8353</v>
+        <v>115.82340000000001</v>
       </c>
       <c r="P117" s="10">
-        <v>115.82340000000001</v>
+        <v>113.4953</v>
       </c>
       <c r="Q117" s="9">
-        <v>5.5</v>
+        <v>-2</v>
       </c>
       <c r="R117" s="13">
-        <v>4.5999999999999996</v>
+        <v>-2.8</v>
       </c>
       <c r="S117" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -20086,19 +20086,19 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="O118" s="10">
-        <v>98.124200000000002</v>
+        <v>100.4016</v>
       </c>
       <c r="P118" s="10">
-        <v>100.4016</v>
+        <v>100.40860000000001</v>
       </c>
       <c r="Q118" s="9">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="R118" s="13">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="S118" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -20145,19 +20145,19 @@
         <v>1.837</v>
       </c>
       <c r="O119" s="10">
-        <v>101.2848</v>
+        <v>101.78870000000001</v>
       </c>
       <c r="P119" s="10">
-        <v>101.78870000000001</v>
+        <v>101.9234</v>
       </c>
       <c r="Q119" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R119" s="13">
         <v>1.2</v>
       </c>
       <c r="S119" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -20204,19 +20204,19 @@
         <v>1.5129999999999999</v>
       </c>
       <c r="O120" s="10">
-        <v>100.92749999999999</v>
+        <v>101.18729999999999</v>
       </c>
       <c r="P120" s="10">
-        <v>101.18729999999999</v>
+        <v>101.2915</v>
       </c>
       <c r="Q120" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R120" s="13">
         <v>0.8</v>
       </c>
       <c r="S120" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -20263,19 +20263,19 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="O121" s="10">
-        <v>103.1639</v>
+        <v>104.82340000000001</v>
       </c>
       <c r="P121" s="10">
-        <v>104.82340000000001</v>
+        <v>105.1024</v>
       </c>
       <c r="Q121" s="9">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="R121" s="13">
         <v>3.2</v>
       </c>
       <c r="S121" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -20322,19 +20322,19 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="O122" s="10">
-        <v>102.5698</v>
+        <v>104.0205</v>
       </c>
       <c r="P122" s="10">
-        <v>104.0205</v>
+        <v>102.8904</v>
       </c>
       <c r="Q122" s="9">
-        <v>1.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R122" s="13">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="S122" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -20381,19 +20381,19 @@
         <v>2.0539999999999998</v>
       </c>
       <c r="O123" s="10">
-        <v>103.0282</v>
+        <v>103.13079999999999</v>
       </c>
       <c r="P123" s="10">
-        <v>103.13079999999999</v>
+        <v>101.8069</v>
       </c>
       <c r="Q123" s="9">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="R123" s="13">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="S123" s="8">
-        <v>2E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -20440,19 +20440,19 @@
         <v>1.873</v>
       </c>
       <c r="O124" s="10">
-        <v>103.4141</v>
+        <v>103.4143</v>
       </c>
       <c r="P124" s="10">
-        <v>103.4143</v>
+        <v>102.0675</v>
       </c>
       <c r="Q124" s="9">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="R124" s="13">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="S124" s="8">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -20499,19 +20499,19 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="O125" s="10">
-        <v>101.1999</v>
+        <v>100.8231</v>
       </c>
       <c r="P125" s="10">
-        <v>100.8231</v>
+        <v>101.1288</v>
       </c>
       <c r="Q125" s="9">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R125" s="13">
-        <v>-0.6</v>
+        <v>1.9</v>
       </c>
       <c r="S125" s="8">
-        <v>-2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -20556,19 +20556,19 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="O126" s="10">
-        <v>102.6345</v>
+        <v>101.8288</v>
       </c>
       <c r="P126" s="10">
-        <v>101.8288</v>
+        <v>102.3767</v>
       </c>
       <c r="Q126" s="9">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R126" s="13">
-        <v>1.1000000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="S126" s="8">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -20613,16 +20613,16 @@
         <v>2.7E-2</v>
       </c>
       <c r="O127" s="10">
-        <v>102.2824</v>
+        <v>103.62690000000001</v>
       </c>
       <c r="P127" s="10">
-        <v>103.62690000000001</v>
+        <v>102.4631</v>
       </c>
       <c r="Q127" s="9">
-        <v>1.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R127" s="13">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="S127" s="8">
         <v>0</v>
@@ -20670,19 +20670,19 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="O128" s="10">
-        <v>103.4105</v>
+        <v>102.413</v>
       </c>
       <c r="P128" s="10">
-        <v>102.413</v>
+        <v>103.3359</v>
       </c>
       <c r="Q128" s="9">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="R128" s="13">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="S128" s="8">
-        <v>-1E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -20727,19 +20727,19 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="O129" s="10">
-        <v>108.5645</v>
+        <v>108.74979999999999</v>
       </c>
       <c r="P129" s="10">
-        <v>108.74979999999999</v>
+        <v>107.64790000000001</v>
       </c>
       <c r="Q129" s="9">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="R129" s="13">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="S129" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -20784,16 +20784,16 @@
         <v>0.12</v>
       </c>
       <c r="O130" s="10">
-        <v>95.391599999999997</v>
+        <v>95.468100000000007</v>
       </c>
       <c r="P130" s="10">
-        <v>95.468100000000007</v>
+        <v>95.112399999999994</v>
       </c>
       <c r="Q130" s="9">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="R130" s="13">
-        <v>-2.2000000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="S130" s="8">
         <v>0</v>
@@ -20841,19 +20841,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O131" s="10">
-        <v>100.8747</v>
+        <v>100.2291</v>
       </c>
       <c r="P131" s="10">
-        <v>100.2291</v>
+        <v>101.867</v>
       </c>
       <c r="Q131" s="9">
-        <v>-0.6</v>
+        <v>1.6</v>
       </c>
       <c r="R131" s="13">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="S131" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -20900,19 +20900,19 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="O132" s="10">
-        <v>105.1309</v>
+        <v>105.4975</v>
       </c>
       <c r="P132" s="10">
-        <v>105.4975</v>
+        <v>103.17189999999999</v>
       </c>
       <c r="Q132" s="9">
-        <v>0.3</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="R132" s="13">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="S132" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -20957,19 +20957,19 @@
         <v>0.156</v>
       </c>
       <c r="O133" s="10">
-        <v>99.846199999999996</v>
+        <v>100.4169</v>
       </c>
       <c r="P133" s="10">
-        <v>100.4169</v>
+        <v>99.082599999999999</v>
       </c>
       <c r="Q133" s="9">
-        <v>0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="R133" s="13">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="S133" s="8">
-        <v>1E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -21014,19 +21014,19 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="O134" s="10">
-        <v>116.3691</v>
+        <v>117.9361</v>
       </c>
       <c r="P134" s="10">
-        <v>117.9361</v>
+        <v>114.767</v>
       </c>
       <c r="Q134" s="9">
-        <v>1.3</v>
+        <v>-2.7</v>
       </c>
       <c r="R134" s="13">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="S134" s="8">
-        <v>2E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -21071,19 +21071,19 @@
         <v>0.217</v>
       </c>
       <c r="O135" s="10">
-        <v>106.5866</v>
+        <v>106.97969999999999</v>
       </c>
       <c r="P135" s="10">
-        <v>106.97969999999999</v>
+        <v>103.7182</v>
       </c>
       <c r="Q135" s="9">
-        <v>0.4</v>
+        <v>-3</v>
       </c>
       <c r="R135" s="13">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="S135" s="8">
-        <v>1E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -21128,19 +21128,19 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O136" s="10">
-        <v>116.31229999999999</v>
+        <v>116.72110000000001</v>
       </c>
       <c r="P136" s="10">
-        <v>116.72110000000001</v>
+        <v>113.7504</v>
       </c>
       <c r="Q136" s="9">
-        <v>0.4</v>
+        <v>-2.5</v>
       </c>
       <c r="R136" s="13">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="S136" s="8">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -21185,19 +21185,19 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="O137" s="10">
-        <v>102.23569999999999</v>
+        <v>102.5609</v>
       </c>
       <c r="P137" s="10">
-        <v>102.5609</v>
+        <v>100.2128</v>
       </c>
       <c r="Q137" s="9">
-        <v>0.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="R137" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S137" s="8">
-        <v>1E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -21242,19 +21242,19 @@
         <v>0.152</v>
       </c>
       <c r="O138" s="10">
-        <v>97.938800000000001</v>
+        <v>97.181899999999999</v>
       </c>
       <c r="P138" s="10">
-        <v>97.181899999999999</v>
+        <v>96.205500000000001</v>
       </c>
       <c r="Q138" s="9">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="R138" s="13">
-        <v>-2.2999999999999998</v>
+        <v>-3.2</v>
       </c>
       <c r="S138" s="8">
-        <v>-1E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -21301,19 +21301,19 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O139" s="10">
-        <v>102.3509</v>
+        <v>102.1743</v>
       </c>
       <c r="P139" s="10">
-        <v>102.1743</v>
+        <v>100.4829</v>
       </c>
       <c r="Q139" s="9">
-        <v>-0.2</v>
+        <v>-1.7</v>
       </c>
       <c r="R139" s="13">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S139" s="8">
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -21358,16 +21358,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="O140" s="10">
-        <v>103.018</v>
+        <v>103.10129999999999</v>
       </c>
       <c r="P140" s="10">
-        <v>103.10129999999999</v>
+        <v>102.1405</v>
       </c>
       <c r="Q140" s="9">
-        <v>0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="R140" s="13">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="S140" s="8">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="O141" s="10">
-        <v>109.3817</v>
+        <v>108.3459</v>
       </c>
       <c r="P141" s="10">
-        <v>108.3459</v>
+        <v>106.0305</v>
       </c>
       <c r="Q141" s="9">
-        <v>-0.9</v>
+        <v>-2.1</v>
       </c>
       <c r="R141" s="13">
-        <v>-0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S141" s="8">
         <v>-1E-3</v>
@@ -21472,19 +21472,19 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O142" s="10">
-        <v>93.692899999999995</v>
+        <v>93.551900000000003</v>
       </c>
       <c r="P142" s="10">
-        <v>93.551900000000003</v>
+        <v>91.9161</v>
       </c>
       <c r="Q142" s="9">
-        <v>-0.2</v>
+        <v>-1.7</v>
       </c>
       <c r="R142" s="13">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="S142" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -21529,19 +21529,19 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O143" s="10">
-        <v>103.0458</v>
+        <v>103.1247</v>
       </c>
       <c r="P143" s="10">
-        <v>103.1247</v>
+        <v>100.66119999999999</v>
       </c>
       <c r="Q143" s="9">
-        <v>0.1</v>
+        <v>-2.4</v>
       </c>
       <c r="R143" s="13">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S143" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -21586,16 +21586,16 @@
         <v>3.1E-2</v>
       </c>
       <c r="O144" s="10">
-        <v>102.60420000000001</v>
+        <v>103.3032</v>
       </c>
       <c r="P144" s="10">
-        <v>103.3032</v>
+        <v>103.8051</v>
       </c>
       <c r="Q144" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R144" s="13">
-        <v>0.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S144" s="8">
         <v>0</v>
@@ -21643,16 +21643,16 @@
         <v>0.255</v>
       </c>
       <c r="O145" s="10">
-        <v>102.0583</v>
+        <v>101.52</v>
       </c>
       <c r="P145" s="10">
-        <v>101.52</v>
+        <v>101.1071</v>
       </c>
       <c r="Q145" s="9">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="R145" s="13">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="S145" s="8">
         <v>-1E-3</v>
@@ -21757,16 +21757,16 @@
         <v>0.152</v>
       </c>
       <c r="O147" s="10">
-        <v>106.5621</v>
+        <v>105.64700000000001</v>
       </c>
       <c r="P147" s="10">
-        <v>105.64700000000001</v>
+        <v>104.9452</v>
       </c>
       <c r="Q147" s="9">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="R147" s="13">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="S147" s="8">
         <v>-1E-3</v>
@@ -21816,19 +21816,19 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O148" s="10">
-        <v>97.720600000000005</v>
+        <v>99.151799999999994</v>
       </c>
       <c r="P148" s="10">
-        <v>99.151799999999994</v>
+        <v>97.505899999999997</v>
       </c>
       <c r="Q148" s="9">
-        <v>1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="R148" s="13">
-        <v>0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="S148" s="8">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -21875,13 +21875,13 @@
         <v>6.2E-2</v>
       </c>
       <c r="O149" s="10">
-        <v>101.825</v>
+        <v>102.4671</v>
       </c>
       <c r="P149" s="10">
         <v>102.4671</v>
       </c>
       <c r="Q149" s="9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R149" s="13">
         <v>0.4</v>
@@ -21934,7 +21934,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="O150" s="10">
-        <v>101.197</v>
+        <v>101.23099999999999</v>
       </c>
       <c r="P150" s="10">
         <v>101.23099999999999</v>
@@ -21993,13 +21993,13 @@
         <v>3.9E-2</v>
       </c>
       <c r="O151" s="10">
-        <v>101.654</v>
+        <v>102.658</v>
       </c>
       <c r="P151" s="10">
         <v>102.658</v>
       </c>
       <c r="Q151" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R151" s="13">
         <v>0.1</v>
@@ -22052,19 +22052,19 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="O152" s="10">
-        <v>101.1752</v>
+        <v>107.03789999999999</v>
       </c>
       <c r="P152" s="10">
-        <v>107.03789999999999</v>
+        <v>106.5406</v>
       </c>
       <c r="Q152" s="9">
-        <v>5.8</v>
+        <v>-0.5</v>
       </c>
       <c r="R152" s="13">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S152" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -22111,19 +22111,19 @@
         <v>0.628</v>
       </c>
       <c r="O153" s="10">
-        <v>101.1888</v>
+        <v>107.13720000000001</v>
       </c>
       <c r="P153" s="10">
-        <v>107.13720000000001</v>
+        <v>106.6327</v>
       </c>
       <c r="Q153" s="9">
-        <v>5.9</v>
+        <v>-0.5</v>
       </c>
       <c r="R153" s="13">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="S153" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -22170,19 +22170,19 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="O154" s="10">
-        <v>98.318100000000001</v>
+        <v>101.9924</v>
       </c>
       <c r="P154" s="10">
-        <v>101.9924</v>
+        <v>101.36360000000001</v>
       </c>
       <c r="Q154" s="9">
-        <v>3.7</v>
+        <v>-0.6</v>
       </c>
       <c r="R154" s="13">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="S154" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -22229,19 +22229,19 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="O155" s="10">
-        <v>103.9337</v>
+        <v>110.9173</v>
       </c>
       <c r="P155" s="10">
-        <v>110.9173</v>
+        <v>110.19199999999999</v>
       </c>
       <c r="Q155" s="9">
-        <v>6.7</v>
+        <v>-0.7</v>
       </c>
       <c r="R155" s="13">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="S155" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -22288,19 +22288,19 @@
         <v>0.111</v>
       </c>
       <c r="O156" s="10">
-        <v>99.350499999999997</v>
+        <v>107.7146</v>
       </c>
       <c r="P156" s="10">
-        <v>107.7146</v>
+        <v>108.0258</v>
       </c>
       <c r="Q156" s="9">
-        <v>8.4</v>
+        <v>0.3</v>
       </c>
       <c r="R156" s="13">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="S156" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -22406,19 +22406,19 @@
         <v>26.594999999999999</v>
       </c>
       <c r="O158" s="10">
-        <v>104.8824</v>
+        <v>105.4948</v>
       </c>
       <c r="P158" s="10">
-        <v>105.4948</v>
+        <v>105.8232</v>
       </c>
       <c r="Q158" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R158" s="13">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="S158" s="8">
-        <v>0.156</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -22465,19 +22465,19 @@
         <v>20.306000000000001</v>
       </c>
       <c r="O159" s="10">
-        <v>101.7693</v>
+        <v>102.1979</v>
       </c>
       <c r="P159" s="10">
         <v>102.1979</v>
       </c>
       <c r="Q159" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R159" s="13">
         <v>1.4</v>
       </c>
       <c r="S159" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -22522,19 +22522,19 @@
         <v>19.606999999999999</v>
       </c>
       <c r="O160" s="10">
-        <v>101.7491</v>
+        <v>102.19119999999999</v>
       </c>
       <c r="P160" s="10">
         <v>102.19119999999999</v>
       </c>
       <c r="Q160" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R160" s="13">
         <v>1.4</v>
       </c>
       <c r="S160" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -22581,19 +22581,19 @@
         <v>15.64</v>
       </c>
       <c r="O161" s="10">
-        <v>101.9179</v>
+        <v>102.36360000000001</v>
       </c>
       <c r="P161" s="10">
         <v>102.36360000000001</v>
       </c>
       <c r="Q161" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R161" s="13">
         <v>1.4</v>
       </c>
       <c r="S161" s="8">
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -22640,19 +22640,19 @@
         <v>3.9670000000000001</v>
       </c>
       <c r="O162" s="10">
-        <v>101.19159999999999</v>
+        <v>101.6203</v>
       </c>
       <c r="P162" s="10">
         <v>101.6203</v>
       </c>
       <c r="Q162" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R162" s="13">
         <v>1.5</v>
       </c>
       <c r="S162" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -22699,7 +22699,7 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="O163" s="10">
-        <v>102.3653</v>
+        <v>102.4145</v>
       </c>
       <c r="P163" s="10">
         <v>102.4145</v>
@@ -22758,19 +22758,19 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="O164" s="10">
-        <v>102.164</v>
+        <v>103.438</v>
       </c>
       <c r="P164" s="10">
-        <v>103.438</v>
+        <v>103.4757</v>
       </c>
       <c r="Q164" s="9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R164" s="13">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="S164" s="8">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -22817,19 +22817,19 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="O165" s="10">
-        <v>106.12820000000001</v>
+        <v>105.8389</v>
       </c>
       <c r="P165" s="10">
-        <v>105.8389</v>
+        <v>106.0403</v>
       </c>
       <c r="Q165" s="9">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R165" s="13">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="S165" s="8">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -22876,19 +22876,19 @@
         <v>0.89</v>
       </c>
       <c r="O166" s="10">
-        <v>101.2526</v>
+        <v>102.8874</v>
       </c>
       <c r="P166" s="10">
         <v>102.8874</v>
       </c>
       <c r="Q166" s="9">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="R166" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="S166" s="8">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -22935,19 +22935,19 @@
         <v>0.27</v>
       </c>
       <c r="O167" s="10">
-        <v>100.36360000000001</v>
+        <v>101.8488</v>
       </c>
       <c r="P167" s="10">
         <v>101.8488</v>
       </c>
       <c r="Q167" s="9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R167" s="13">
         <v>1.3</v>
       </c>
       <c r="S167" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -22994,19 +22994,19 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="O168" s="10">
-        <v>100.6362</v>
+        <v>101.4687</v>
       </c>
       <c r="P168" s="10">
         <v>101.4687</v>
       </c>
       <c r="Q168" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R168" s="13">
         <v>1.3</v>
       </c>
       <c r="S168" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -23053,19 +23053,19 @@
         <v>0.08</v>
       </c>
       <c r="O169" s="10">
-        <v>100.8587</v>
+        <v>101.6168</v>
       </c>
       <c r="P169" s="10">
         <v>101.6168</v>
       </c>
       <c r="Q169" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R169" s="13">
         <v>1.2</v>
       </c>
       <c r="S169" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -23112,19 +23112,19 @@
         <v>0.443</v>
       </c>
       <c r="O170" s="10">
-        <v>102.0074</v>
+        <v>104.0729</v>
       </c>
       <c r="P170" s="10">
         <v>104.0729</v>
       </c>
       <c r="Q170" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R170" s="13">
         <v>3.2</v>
       </c>
       <c r="S170" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
@@ -23523,19 +23523,19 @@
         <v>3.52</v>
       </c>
       <c r="O177" s="10">
-        <v>127.0575</v>
+        <v>128.91669999999999</v>
       </c>
       <c r="P177" s="10">
-        <v>128.91669999999999</v>
+        <v>131.5812</v>
       </c>
       <c r="Q177" s="9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="R177" s="13">
-        <v>23.8</v>
+        <v>25.3</v>
       </c>
       <c r="S177" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -24040,19 +24040,19 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="O186" s="10">
-        <v>136.9991</v>
+        <v>138.44560000000001</v>
       </c>
       <c r="P186" s="10">
-        <v>138.44560000000001</v>
+        <v>141.215</v>
       </c>
       <c r="Q186" s="9">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="R186" s="13">
-        <v>40.700000000000003</v>
+        <v>43.5</v>
       </c>
       <c r="S186" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
@@ -24097,19 +24097,19 @@
         <v>0.159</v>
       </c>
       <c r="O187" s="10">
-        <v>135.2286</v>
+        <v>136.62379999999999</v>
       </c>
       <c r="P187" s="10">
-        <v>136.62379999999999</v>
+        <v>139.25049999999999</v>
       </c>
       <c r="Q187" s="9">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="R187" s="13">
-        <v>38.5</v>
+        <v>41.1</v>
       </c>
       <c r="S187" s="8">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
@@ -24154,19 +24154,19 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="O188" s="10">
-        <v>137.21850000000001</v>
+        <v>138.6575</v>
       </c>
       <c r="P188" s="10">
-        <v>138.6575</v>
+        <v>141.4128</v>
       </c>
       <c r="Q188" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R188" s="13">
-        <v>40.799999999999997</v>
+        <v>43.6</v>
       </c>
       <c r="S188" s="8">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
@@ -24211,19 +24211,19 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O189" s="10">
-        <v>137.62209999999999</v>
+        <v>139.07830000000001</v>
       </c>
       <c r="P189" s="10">
-        <v>139.07830000000001</v>
+        <v>141.91159999999999</v>
       </c>
       <c r="Q189" s="9">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="R189" s="13">
-        <v>41.3</v>
+        <v>44.2</v>
       </c>
       <c r="S189" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -24268,19 +24268,19 @@
         <v>9.4E-2</v>
       </c>
       <c r="O190" s="10">
-        <v>138.18969999999999</v>
+        <v>139.71010000000001</v>
       </c>
       <c r="P190" s="10">
-        <v>139.71010000000001</v>
+        <v>142.5874</v>
       </c>
       <c r="Q190" s="9">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="R190" s="13">
-        <v>42.9</v>
+        <v>45.8</v>
       </c>
       <c r="S190" s="8">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
@@ -24327,19 +24327,19 @@
         <v>0.623</v>
       </c>
       <c r="O191" s="10">
-        <v>200.90649999999999</v>
+        <v>211.22649999999999</v>
       </c>
       <c r="P191" s="10">
-        <v>211.22649999999999</v>
+        <v>225.6431</v>
       </c>
       <c r="Q191" s="9">
-        <v>5.0999999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="R191" s="13">
-        <v>81.900000000000006</v>
+        <v>88</v>
       </c>
       <c r="S191" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
@@ -24386,19 +24386,19 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="O192" s="10">
-        <v>117.8108</v>
+        <v>118.2337</v>
       </c>
       <c r="P192" s="10">
-        <v>118.2337</v>
+        <v>120.3411</v>
       </c>
       <c r="Q192" s="9">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="R192" s="13">
-        <v>16.2</v>
+        <v>18.2</v>
       </c>
       <c r="S192" s="8">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
@@ -24443,19 +24443,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="O193" s="10">
-        <v>131.97139999999999</v>
+        <v>132.6062</v>
       </c>
       <c r="P193" s="10">
-        <v>132.6062</v>
+        <v>137.0925</v>
       </c>
       <c r="Q193" s="9">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="R193" s="13">
-        <v>41.9</v>
+        <v>46.5</v>
       </c>
       <c r="S193" s="8">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
@@ -24500,19 +24500,19 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="O194" s="10">
-        <v>110.5274</v>
+        <v>110.84010000000001</v>
       </c>
       <c r="P194" s="10">
-        <v>110.84010000000001</v>
+        <v>111.7094</v>
       </c>
       <c r="Q194" s="9">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R194" s="13">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="S194" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
@@ -24559,19 +24559,19 @@
         <v>0.114</v>
       </c>
       <c r="O195" s="10">
-        <v>113.42019999999999</v>
+        <v>116.5707</v>
       </c>
       <c r="P195" s="10">
         <v>116.5707</v>
       </c>
       <c r="Q195" s="9">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R195" s="13">
         <v>10.3</v>
       </c>
       <c r="S195" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
@@ -24618,19 +24618,19 @@
         <v>4.5179999999999998</v>
       </c>
       <c r="O196" s="10">
-        <v>106.3107</v>
+        <v>106.0671</v>
       </c>
       <c r="P196" s="10">
-        <v>106.0671</v>
+        <v>106.33</v>
       </c>
       <c r="Q196" s="9">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="R196" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="S196" s="8">
-        <v>-1.0999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
@@ -24677,19 +24677,19 @@
         <v>1.6459999999999999</v>
       </c>
       <c r="O197" s="10">
-        <v>112.2462</v>
+        <v>111.95440000000001</v>
       </c>
       <c r="P197" s="10">
-        <v>111.95440000000001</v>
+        <v>112.1746</v>
       </c>
       <c r="Q197" s="9">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R197" s="13">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="S197" s="8">
-        <v>-5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
@@ -24736,19 +24736,19 @@
         <v>1.56</v>
       </c>
       <c r="O198" s="10">
-        <v>112.6409</v>
+        <v>112.3588</v>
       </c>
       <c r="P198" s="10">
-        <v>112.3588</v>
+        <v>112.6425</v>
       </c>
       <c r="Q198" s="9">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="R198" s="13">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S198" s="8">
-        <v>-4.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
@@ -24795,19 +24795,19 @@
         <v>1.105</v>
       </c>
       <c r="O199" s="10">
-        <v>112.6482</v>
+        <v>113.1545</v>
       </c>
       <c r="P199" s="10">
-        <v>113.1545</v>
+        <v>113.57850000000001</v>
       </c>
       <c r="Q199" s="9">
         <v>0.4</v>
       </c>
       <c r="R199" s="13">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="S199" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
@@ -24852,19 +24852,19 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="O200" s="10">
-        <v>113.4408</v>
+        <v>114.5055</v>
       </c>
       <c r="P200" s="10">
-        <v>114.5055</v>
+        <v>114.70180000000001</v>
       </c>
       <c r="Q200" s="9">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="R200" s="13">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="S200" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
@@ -24909,19 +24909,19 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="O201" s="10">
-        <v>111.1078</v>
+        <v>110.9633</v>
       </c>
       <c r="P201" s="10">
-        <v>110.9633</v>
+        <v>112.4044</v>
       </c>
       <c r="Q201" s="9">
-        <v>-0.1</v>
+        <v>1.3</v>
       </c>
       <c r="R201" s="13">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="S201" s="8">
-        <v>-1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
@@ -24966,19 +24966,19 @@
         <v>0.115</v>
       </c>
       <c r="O202" s="10">
-        <v>113.7993</v>
+        <v>113.7957</v>
       </c>
       <c r="P202" s="10">
-        <v>113.7957</v>
+        <v>111.7316</v>
       </c>
       <c r="Q202" s="9">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="R202" s="13">
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="S202" s="8">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
@@ -25025,19 +25025,19 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="O203" s="10">
-        <v>125.5407</v>
+        <v>119.04340000000001</v>
       </c>
       <c r="P203" s="10">
-        <v>119.04340000000001</v>
+        <v>117.4248</v>
       </c>
       <c r="Q203" s="9">
-        <v>-5.2</v>
+        <v>-1.4</v>
       </c>
       <c r="R203" s="13">
-        <v>7.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S203" s="8">
-        <v>-8.0000000000000002E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
@@ -25084,16 +25084,16 @@
         <v>0.19</v>
       </c>
       <c r="O204" s="10">
-        <v>104.1567</v>
+        <v>104.5509</v>
       </c>
       <c r="P204" s="10">
-        <v>104.5509</v>
+        <v>104.8651</v>
       </c>
       <c r="Q204" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R204" s="13">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="S204" s="8">
         <v>1E-3</v>
@@ -25143,19 +25143,19 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O205" s="10">
-        <v>111.3734</v>
+        <v>109.7706</v>
       </c>
       <c r="P205" s="10">
-        <v>109.7706</v>
+        <v>110.76430000000001</v>
       </c>
       <c r="Q205" s="9">
-        <v>-1.4</v>
+        <v>0.9</v>
       </c>
       <c r="R205" s="13">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="S205" s="8">
-        <v>-2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
@@ -25202,19 +25202,19 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O206" s="10">
-        <v>104.001</v>
+        <v>103.5421</v>
       </c>
       <c r="P206" s="10">
-        <v>103.5421</v>
+        <v>102.63630000000001</v>
       </c>
       <c r="Q206" s="9">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="R206" s="13">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="S206" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
@@ -25261,19 +25261,19 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="O207" s="10">
-        <v>107.0412</v>
+        <v>107.9252</v>
       </c>
       <c r="P207" s="10">
-        <v>107.9252</v>
+        <v>107.1323</v>
       </c>
       <c r="Q207" s="9">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="R207" s="13">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="S207" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
@@ -25320,19 +25320,19 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="O208" s="10">
-        <v>106.1542</v>
+        <v>107.26909999999999</v>
       </c>
       <c r="P208" s="10">
-        <v>107.26909999999999</v>
+        <v>106.56019999999999</v>
       </c>
       <c r="Q208" s="9">
-        <v>1.1000000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="R208" s="13">
-        <v>6.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S208" s="8">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
@@ -25379,19 +25379,19 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="O209" s="10">
-        <v>106.9974</v>
+        <v>108.2769</v>
       </c>
       <c r="P209" s="10">
-        <v>108.2769</v>
+        <v>107.0137</v>
       </c>
       <c r="Q209" s="9">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="R209" s="13">
-        <v>8.1</v>
+        <v>6.4</v>
       </c>
       <c r="S209" s="8">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
@@ -25438,16 +25438,16 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="O210" s="10">
-        <v>108.5896</v>
+        <v>107.7308</v>
       </c>
       <c r="P210" s="10">
-        <v>107.7308</v>
+        <v>108.33459999999999</v>
       </c>
       <c r="Q210" s="9">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R210" s="13">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="S210" s="8">
         <v>0</v>
@@ -25497,19 +25497,19 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="O211" s="10">
-        <v>101.51220000000001</v>
+        <v>100.99339999999999</v>
       </c>
       <c r="P211" s="10">
-        <v>100.99339999999999</v>
+        <v>100.28270000000001</v>
       </c>
       <c r="Q211" s="9">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="R211" s="13">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="S211" s="8">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
@@ -25556,19 +25556,19 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="O212" s="10">
-        <v>100.85509999999999</v>
+        <v>100.3309</v>
       </c>
       <c r="P212" s="10">
-        <v>100.3309</v>
+        <v>99.569599999999994</v>
       </c>
       <c r="Q212" s="9">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="R212" s="13">
-        <v>-0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="S212" s="8">
-        <v>-3.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
@@ -25615,16 +25615,16 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="O213" s="10">
-        <v>101.3712</v>
+        <v>101.2743</v>
       </c>
       <c r="P213" s="10">
-        <v>101.2743</v>
+        <v>101.4271</v>
       </c>
       <c r="Q213" s="9">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R213" s="13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S213" s="8">
         <v>0</v>
@@ -25674,19 +25674,19 @@
         <v>0.161</v>
       </c>
       <c r="O214" s="10">
-        <v>98.311700000000002</v>
+        <v>98.656499999999994</v>
       </c>
       <c r="P214" s="10">
-        <v>98.656499999999994</v>
+        <v>98.571200000000005</v>
       </c>
       <c r="Q214" s="9">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="R214" s="13">
-        <v>-2.9</v>
+        <v>-3.7</v>
       </c>
       <c r="S214" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
@@ -25733,19 +25733,19 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="O215" s="10">
-        <v>105.1302</v>
+        <v>103.9436</v>
       </c>
       <c r="P215" s="10">
-        <v>103.9436</v>
+        <v>101.96080000000001</v>
       </c>
       <c r="Q215" s="9">
-        <v>-1.1000000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="R215" s="13">
-        <v>2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="S215" s="8">
-        <v>-2E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
@@ -25792,19 +25792,19 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="O216" s="10">
-        <v>103.26900000000001</v>
+        <v>101.78740000000001</v>
       </c>
       <c r="P216" s="10">
-        <v>101.78740000000001</v>
+        <v>101.4413</v>
       </c>
       <c r="Q216" s="9">
-        <v>-1.4</v>
+        <v>-0.3</v>
       </c>
       <c r="R216" s="13">
-        <v>-1.7</v>
+        <v>0.2</v>
       </c>
       <c r="S216" s="8">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
@@ -25851,16 +25851,16 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="O217" s="10">
-        <v>96.607500000000002</v>
+        <v>95.974500000000006</v>
       </c>
       <c r="P217" s="10">
-        <v>95.974500000000006</v>
+        <v>94.446399999999997</v>
       </c>
       <c r="Q217" s="9">
-        <v>-0.7</v>
+        <v>-1.6</v>
       </c>
       <c r="R217" s="13">
-        <v>-2.1</v>
+        <v>-3.1</v>
       </c>
       <c r="S217" s="8">
         <v>-1E-3</v>
@@ -25910,16 +25910,16 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="O218" s="10">
-        <v>103.06229999999999</v>
+        <v>102.5587</v>
       </c>
       <c r="P218" s="10">
-        <v>102.5587</v>
+        <v>101.9837</v>
       </c>
       <c r="Q218" s="9">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="R218" s="13">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="S218" s="8">
         <v>-1E-3</v>
@@ -25969,19 +25969,19 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="O219" s="10">
-        <v>103.2092</v>
+        <v>104.01949999999999</v>
       </c>
       <c r="P219" s="10">
-        <v>104.01949999999999</v>
+        <v>103.7449</v>
       </c>
       <c r="Q219" s="9">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="R219" s="13">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="S219" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
@@ -26028,16 +26028,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O220" s="10">
-        <v>103.8694</v>
+        <v>104.1832</v>
       </c>
       <c r="P220" s="10">
-        <v>104.1832</v>
+        <v>103.7878</v>
       </c>
       <c r="Q220" s="9">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="R220" s="13">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="S220" s="8">
         <v>0</v>
@@ -26087,19 +26087,19 @@
         <v>1.2E-2</v>
       </c>
       <c r="O221" s="10">
-        <v>94.611099999999993</v>
+        <v>101.6923</v>
       </c>
       <c r="P221" s="10">
-        <v>101.6923</v>
+        <v>98.180999999999997</v>
       </c>
       <c r="Q221" s="9">
-        <v>7.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R221" s="13">
-        <v>3.4</v>
+        <v>-0.3</v>
       </c>
       <c r="S221" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
@@ -26146,19 +26146,19 @@
         <v>0.249</v>
       </c>
       <c r="O222" s="10">
-        <v>103.4443</v>
+        <v>104.09050000000001</v>
       </c>
       <c r="P222" s="10">
-        <v>104.09050000000001</v>
+        <v>104.008</v>
       </c>
       <c r="Q222" s="9">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="R222" s="13">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="S222" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
@@ -26203,19 +26203,19 @@
         <v>0.182</v>
       </c>
       <c r="O223" s="10">
-        <v>103.5919</v>
+        <v>104.5386</v>
       </c>
       <c r="P223" s="10">
-        <v>104.5386</v>
+        <v>104.61320000000001</v>
       </c>
       <c r="Q223" s="9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="R223" s="13">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="S223" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
@@ -26260,13 +26260,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O224" s="10">
-        <v>103.134</v>
+        <v>102.98480000000001</v>
       </c>
       <c r="P224" s="10">
-        <v>102.98480000000001</v>
+        <v>102.4863</v>
       </c>
       <c r="Q224" s="9">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224" s="13">
         <v>3.6</v>
@@ -26319,16 +26319,16 @@
         <v>0.503</v>
       </c>
       <c r="O225" s="10">
-        <v>102.70310000000001</v>
+        <v>103.1427</v>
       </c>
       <c r="P225" s="10">
-        <v>103.1427</v>
+        <v>103.5245</v>
       </c>
       <c r="Q225" s="9">
         <v>0.4</v>
       </c>
       <c r="R225" s="13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S225" s="8">
         <v>2E-3</v>
@@ -26378,19 +26378,19 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O226" s="10">
-        <v>100.4233</v>
+        <v>100.11960000000001</v>
       </c>
       <c r="P226" s="10">
-        <v>100.11960000000001</v>
+        <v>100.961</v>
       </c>
       <c r="Q226" s="9">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R226" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S226" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
@@ -26437,19 +26437,19 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="O227" s="10">
-        <v>103.29940000000001</v>
+        <v>103.9269</v>
       </c>
       <c r="P227" s="10">
-        <v>103.9269</v>
+        <v>104.1927</v>
       </c>
       <c r="Q227" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R227" s="13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="S227" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
@@ -26496,16 +26496,16 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="O228" s="10">
-        <v>102.7017</v>
+        <v>103.05110000000001</v>
       </c>
       <c r="P228" s="10">
-        <v>103.05110000000001</v>
+        <v>103.0478</v>
       </c>
       <c r="Q228" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R228" s="13">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="S228" s="8">
         <v>0</v>
@@ -26555,19 +26555,19 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="O229" s="10">
-        <v>103.4913</v>
+        <v>104.20740000000001</v>
       </c>
       <c r="P229" s="10">
-        <v>104.20740000000001</v>
+        <v>104.55889999999999</v>
       </c>
       <c r="Q229" s="9">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="R229" s="13">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="S229" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
@@ -26614,19 +26614,19 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="O230" s="10">
-        <v>103.03749999999999</v>
+        <v>102.0134</v>
       </c>
       <c r="P230" s="10">
-        <v>102.0134</v>
+        <v>103.52849999999999</v>
       </c>
       <c r="Q230" s="9">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R230" s="13">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="S230" s="8">
-        <v>-0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
@@ -26673,19 +26673,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O231" s="10">
-        <v>104.14060000000001</v>
+        <v>102.32380000000001</v>
       </c>
       <c r="P231" s="10">
-        <v>102.32380000000001</v>
+        <v>105.0117</v>
       </c>
       <c r="Q231" s="9">
-        <v>-1.7</v>
+        <v>2.6</v>
       </c>
       <c r="R231" s="13">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="S231" s="8">
-        <v>-0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
@@ -26730,19 +26730,19 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="O232" s="10">
-        <v>104.9747</v>
+        <v>100.73650000000001</v>
       </c>
       <c r="P232" s="10">
-        <v>100.73650000000001</v>
+        <v>104.6528</v>
       </c>
       <c r="Q232" s="9">
-        <v>-4</v>
+        <v>3.9</v>
       </c>
       <c r="R232" s="13">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="S232" s="8">
-        <v>-1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
@@ -26787,16 +26787,16 @@
         <v>1.9E-2</v>
       </c>
       <c r="O233" s="10">
-        <v>100.7223</v>
+        <v>100.65</v>
       </c>
       <c r="P233" s="10">
-        <v>100.65</v>
+        <v>101.32429999999999</v>
       </c>
       <c r="Q233" s="9">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
       <c r="R233" s="13">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S233" s="8">
         <v>0</v>
@@ -26844,19 +26844,19 @@
         <v>0.219</v>
       </c>
       <c r="O234" s="10">
-        <v>103.2933</v>
+        <v>104.842</v>
       </c>
       <c r="P234" s="10">
-        <v>104.842</v>
+        <v>105.92310000000001</v>
       </c>
       <c r="Q234" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R234" s="13">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="S234" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
@@ -26962,10 +26962,10 @@
         <v>16.670999999999999</v>
       </c>
       <c r="O236" s="10">
-        <v>99.406800000000004</v>
+        <v>99.397199999999998</v>
       </c>
       <c r="P236" s="10">
-        <v>99.397199999999998</v>
+        <v>99.383499999999998</v>
       </c>
       <c r="Q236" s="9">
         <v>0</v>
@@ -27021,16 +27021,16 @@
         <v>4.1150000000000002</v>
       </c>
       <c r="O237" s="10">
-        <v>97.373599999999996</v>
+        <v>97.335300000000004</v>
       </c>
       <c r="P237" s="10">
-        <v>97.335300000000004</v>
+        <v>97.280900000000003</v>
       </c>
       <c r="Q237" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R237" s="13">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="S237" s="8">
         <v>-2E-3</v>
@@ -27080,19 +27080,19 @@
         <v>3.2730000000000001</v>
       </c>
       <c r="O238" s="10">
-        <v>97.812100000000001</v>
+        <v>97.745099999999994</v>
       </c>
       <c r="P238" s="10">
-        <v>97.745099999999994</v>
+        <v>97.706699999999998</v>
       </c>
       <c r="Q238" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R238" s="13">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="S238" s="8">
-        <v>-2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
@@ -27139,19 +27139,19 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="O239" s="10">
-        <v>87.661900000000003</v>
+        <v>86.712400000000002</v>
       </c>
       <c r="P239" s="10">
-        <v>86.712400000000002</v>
+        <v>86.288899999999998</v>
       </c>
       <c r="Q239" s="9">
-        <v>-1.1000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="R239" s="13">
-        <v>-6.1</v>
+        <v>-3.6</v>
       </c>
       <c r="S239" s="8">
-        <v>-2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
@@ -27198,19 +27198,19 @@
         <v>0.63</v>
       </c>
       <c r="O240" s="10">
-        <v>99.313100000000006</v>
+        <v>99.765100000000004</v>
       </c>
       <c r="P240" s="10">
         <v>99.765100000000004</v>
       </c>
       <c r="Q240" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R240" s="13">
         <v>0.9</v>
       </c>
       <c r="S240" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
@@ -27316,19 +27316,19 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="O242" s="10">
-        <v>102.2291</v>
+        <v>104.0056</v>
       </c>
       <c r="P242" s="10">
         <v>104.0056</v>
       </c>
       <c r="Q242" s="9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="R242" s="13">
         <v>4</v>
       </c>
       <c r="S242" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
@@ -28016,19 +28016,19 @@
         <v>10.976000000000001</v>
       </c>
       <c r="O254" s="10">
-        <v>113.8198</v>
+        <v>114.8039</v>
       </c>
       <c r="P254" s="10">
-        <v>114.8039</v>
+        <v>117.6463</v>
       </c>
       <c r="Q254" s="9">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="R254" s="13">
-        <v>10.3</v>
+        <v>13.1</v>
       </c>
       <c r="S254" s="8">
-        <v>9.9000000000000005E-2</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
@@ -28073,19 +28073,19 @@
         <v>9.18</v>
       </c>
       <c r="O255" s="10">
-        <v>115.40770000000001</v>
+        <v>116.36879999999999</v>
       </c>
       <c r="P255" s="10">
-        <v>116.36879999999999</v>
+        <v>119.6014</v>
       </c>
       <c r="Q255" s="9">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="R255" s="13">
-        <v>11.1</v>
+        <v>14</v>
       </c>
       <c r="S255" s="8">
-        <v>0.08</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
@@ -28132,19 +28132,19 @@
         <v>5.3109999999999999</v>
       </c>
       <c r="O256" s="10">
-        <v>109.3081</v>
+        <v>110.0548</v>
       </c>
       <c r="P256" s="10">
-        <v>110.0548</v>
+        <v>110.81570000000001</v>
       </c>
       <c r="Q256" s="9">
         <v>0.7</v>
       </c>
       <c r="R256" s="13">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="S256" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
@@ -28191,19 +28191,19 @@
         <v>4.7359999999999998</v>
       </c>
       <c r="O257" s="10">
-        <v>110.37949999999999</v>
+        <v>111.20099999999999</v>
       </c>
       <c r="P257" s="10">
-        <v>111.20099999999999</v>
+        <v>112.0603</v>
       </c>
       <c r="Q257" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R257" s="13">
-        <v>8.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="S257" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
@@ -28250,19 +28250,19 @@
         <v>3.0459999999999998</v>
       </c>
       <c r="O258" s="10">
-        <v>105.6972</v>
+        <v>106.309</v>
       </c>
       <c r="P258" s="10">
-        <v>106.309</v>
+        <v>106.90900000000001</v>
       </c>
       <c r="Q258" s="9">
         <v>0.6</v>
       </c>
       <c r="R258" s="13">
-        <v>4.5999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="S258" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
@@ -28309,19 +28309,19 @@
         <v>1.69</v>
       </c>
       <c r="O259" s="10">
-        <v>119.15179999999999</v>
+        <v>120.3746</v>
       </c>
       <c r="P259" s="10">
-        <v>120.3746</v>
+        <v>121.7312</v>
       </c>
       <c r="Q259" s="9">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R259" s="13">
-        <v>16.399999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="S259" s="8">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
@@ -28368,19 +28368,19 @@
         <v>0.224</v>
       </c>
       <c r="O260" s="10">
-        <v>103.8776</v>
+        <v>104.32640000000001</v>
       </c>
       <c r="P260" s="10">
         <v>104.32640000000001</v>
       </c>
       <c r="Q260" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R260" s="13">
         <v>2.8</v>
       </c>
       <c r="S260" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
@@ -28600,19 +28600,19 @@
         <v>3.8690000000000002</v>
       </c>
       <c r="O264" s="10">
-        <v>123.39360000000001</v>
+        <v>124.6677</v>
       </c>
       <c r="P264" s="10">
-        <v>124.6677</v>
+        <v>131.5909</v>
       </c>
       <c r="Q264" s="9">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="R264" s="13">
-        <v>15.4</v>
+        <v>21.2</v>
       </c>
       <c r="S264" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
@@ -28659,19 +28659,19 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="O265" s="10">
-        <v>106.3887</v>
+        <v>106.67059999999999</v>
       </c>
       <c r="P265" s="10">
-        <v>106.67059999999999</v>
+        <v>107.8524</v>
       </c>
       <c r="Q265" s="9">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R265" s="13">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="S265" s="8">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
@@ -28718,19 +28718,19 @@
         <v>0.223</v>
       </c>
       <c r="O266" s="10">
-        <v>109.24290000000001</v>
+        <v>109.6388</v>
       </c>
       <c r="P266" s="10">
-        <v>109.6388</v>
+        <v>111.50449999999999</v>
       </c>
       <c r="Q266" s="9">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="R266" s="13">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="S266" s="8">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
@@ -28780,16 +28780,16 @@
         <v>105.4649</v>
       </c>
       <c r="P267" s="10">
-        <v>105.4649</v>
+        <v>106.5295</v>
       </c>
       <c r="Q267" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R267" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S267" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
@@ -28836,16 +28836,16 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="O268" s="10">
-        <v>101.23350000000001</v>
+        <v>101.629</v>
       </c>
       <c r="P268" s="10">
-        <v>101.629</v>
+        <v>101.47709999999999</v>
       </c>
       <c r="Q268" s="9">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="R268" s="13">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="S268" s="8">
         <v>0</v>
@@ -28895,19 +28895,19 @@
         <v>1.946</v>
       </c>
       <c r="O269" s="10">
-        <v>145.72059999999999</v>
+        <v>148.018</v>
       </c>
       <c r="P269" s="10">
-        <v>148.018</v>
+        <v>158.85669999999999</v>
       </c>
       <c r="Q269" s="9">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="R269" s="13">
-        <v>26.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="S269" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
@@ -28954,19 +28954,19 @@
         <v>0.59</v>
       </c>
       <c r="O270" s="10">
-        <v>147.3742</v>
+        <v>151.12049999999999</v>
       </c>
       <c r="P270" s="10">
-        <v>151.12049999999999</v>
+        <v>156.6808</v>
       </c>
       <c r="Q270" s="9">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="R270" s="13">
-        <v>30.4</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="S270" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
@@ -29013,19 +29013,19 @@
         <v>1.3560000000000001</v>
       </c>
       <c r="O271" s="10">
-        <v>144.9401</v>
+        <v>146.58449999999999</v>
       </c>
       <c r="P271" s="10">
-        <v>146.58449999999999</v>
+        <v>159.7972</v>
       </c>
       <c r="Q271" s="9">
-        <v>1.1000000000000001</v>
+        <v>9</v>
       </c>
       <c r="R271" s="13">
-        <v>25.3</v>
+        <v>35.4</v>
       </c>
       <c r="S271" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
@@ -29075,16 +29075,16 @@
         <v>101.98009999999999</v>
       </c>
       <c r="P272" s="10">
-        <v>101.98009999999999</v>
+        <v>103.066</v>
       </c>
       <c r="Q272" s="9">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R272" s="13">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="S272" s="8">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
@@ -29132,16 +29132,16 @@
         <v>101.7474</v>
       </c>
       <c r="P273" s="10">
-        <v>101.7474</v>
+        <v>102.71</v>
       </c>
       <c r="Q273" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R273" s="13">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S273" s="8">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
@@ -29189,16 +29189,16 @@
         <v>104.5578</v>
       </c>
       <c r="P274" s="10">
-        <v>104.5578</v>
+        <v>107.69240000000001</v>
       </c>
       <c r="Q274" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R274" s="13">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="S274" s="8">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
@@ -29245,19 +29245,19 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="O275" s="10">
-        <v>104.6</v>
+        <v>106.1742</v>
       </c>
       <c r="P275" s="10">
-        <v>106.1742</v>
+        <v>118.8389</v>
       </c>
       <c r="Q275" s="9">
-        <v>1.5</v>
+        <v>11.9</v>
       </c>
       <c r="R275" s="13">
-        <v>7.1</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="S275" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
@@ -29304,19 +29304,19 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="O276" s="10">
-        <v>107.3049</v>
+        <v>110.8304</v>
       </c>
       <c r="P276" s="10">
-        <v>110.8304</v>
+        <v>139.1926</v>
       </c>
       <c r="Q276" s="9">
-        <v>3.3</v>
+        <v>25.6</v>
       </c>
       <c r="R276" s="13">
-        <v>12.6</v>
+        <v>38.4</v>
       </c>
       <c r="S276" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
@@ -29418,19 +29418,19 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="O278" s="10">
-        <v>107.0056</v>
+        <v>116.0521</v>
       </c>
       <c r="P278" s="10">
-        <v>116.0521</v>
+        <v>188.8305</v>
       </c>
       <c r="Q278" s="9">
-        <v>8.5</v>
+        <v>62.7</v>
       </c>
       <c r="R278" s="13">
-        <v>20.399999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="S278" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
@@ -29595,19 +29595,19 @@
         <v>1.796</v>
       </c>
       <c r="O281" s="10">
-        <v>108.2762</v>
+        <v>109.3873</v>
       </c>
       <c r="P281" s="10">
-        <v>109.3873</v>
+        <v>110.42189999999999</v>
       </c>
       <c r="Q281" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R281" s="13">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="S281" s="8">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
@@ -29654,19 +29654,19 @@
         <v>1.51</v>
       </c>
       <c r="O282" s="10">
-        <v>100.1666</v>
+        <v>100.2955</v>
       </c>
       <c r="P282" s="10">
-        <v>100.2955</v>
+        <v>100.2701</v>
       </c>
       <c r="Q282" s="9">
+        <v>0</v>
+      </c>
+      <c r="R282" s="13">
         <v>0.1</v>
       </c>
-      <c r="R282" s="13">
-        <v>0.3</v>
-      </c>
       <c r="S282" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
@@ -29722,7 +29722,7 @@
         <v>0</v>
       </c>
       <c r="R283" s="13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S283" s="8">
         <v>0</v>
@@ -29829,19 +29829,19 @@
         <v>2.3E-2</v>
       </c>
       <c r="O285" s="10">
-        <v>106.3295</v>
+        <v>114.6905</v>
       </c>
       <c r="P285" s="10">
-        <v>114.6905</v>
+        <v>113.04130000000001</v>
       </c>
       <c r="Q285" s="9">
-        <v>7.9</v>
+        <v>-1.4</v>
       </c>
       <c r="R285" s="13">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="S285" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
@@ -29947,19 +29947,19 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="O287" s="10">
-        <v>162.5376</v>
+        <v>170.8091</v>
       </c>
       <c r="P287" s="10">
-        <v>170.8091</v>
+        <v>179.53489999999999</v>
       </c>
       <c r="Q287" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="R287" s="13">
-        <v>57.6</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="S287" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
@@ -30065,19 +30065,19 @@
         <v>3.0289999999999999</v>
       </c>
       <c r="O289" s="10">
-        <v>99.885499999999993</v>
+        <v>100.1254</v>
       </c>
       <c r="P289" s="10">
-        <v>100.1254</v>
+        <v>100.09099999999999</v>
       </c>
       <c r="Q289" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R289" s="13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S289" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
@@ -30183,16 +30183,16 @@
         <v>0.247</v>
       </c>
       <c r="O291" s="10">
-        <v>98.920400000000001</v>
+        <v>98.502499999999998</v>
       </c>
       <c r="P291" s="10">
-        <v>98.502499999999998</v>
+        <v>98.077799999999996</v>
       </c>
       <c r="Q291" s="9">
         <v>-0.4</v>
       </c>
       <c r="R291" s="13">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="S291" s="8">
         <v>-1E-3</v>
@@ -30242,19 +30242,19 @@
         <v>2.6960000000000002</v>
       </c>
       <c r="O292" s="10">
-        <v>99.743200000000002</v>
+        <v>100.05070000000001</v>
       </c>
       <c r="P292" s="10">
         <v>100.05070000000001</v>
       </c>
       <c r="Q292" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R292" s="13">
         <v>0.5</v>
       </c>
       <c r="S292" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
@@ -30358,19 +30358,19 @@
         <v>1.5489999999999999</v>
       </c>
       <c r="O294" s="10">
-        <v>99.501800000000003</v>
+        <v>99.416499999999999</v>
       </c>
       <c r="P294" s="10">
         <v>99.416499999999999</v>
       </c>
       <c r="Q294" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R294" s="13">
         <v>-0.2</v>
       </c>
       <c r="S294" s="8">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
@@ -30417,19 +30417,19 @@
         <v>1.032</v>
       </c>
       <c r="O295" s="10">
-        <v>99.712100000000007</v>
+        <v>100.6335</v>
       </c>
       <c r="P295" s="10">
         <v>100.6335</v>
       </c>
       <c r="Q295" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="R295" s="13">
         <v>1.3</v>
       </c>
       <c r="S295" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
@@ -30476,19 +30476,19 @@
         <v>6.7750000000000004</v>
       </c>
       <c r="O296" s="10">
-        <v>102.7645</v>
+        <v>103.294</v>
       </c>
       <c r="P296" s="10">
-        <v>103.294</v>
+        <v>103.9025</v>
       </c>
       <c r="Q296" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R296" s="13">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S296" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
@@ -30535,16 +30535,16 @@
         <v>0.92</v>
       </c>
       <c r="O297" s="10">
-        <v>100.71680000000001</v>
+        <v>100.2653</v>
       </c>
       <c r="P297" s="10">
-        <v>100.2653</v>
+        <v>99.810100000000006</v>
       </c>
       <c r="Q297" s="9">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="R297" s="13">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="S297" s="8">
         <v>-4.0000000000000001E-3</v>
@@ -30594,19 +30594,19 @@
         <v>0.252</v>
       </c>
       <c r="O298" s="10">
-        <v>98.856200000000001</v>
+        <v>97.3947</v>
       </c>
       <c r="P298" s="10">
-        <v>97.3947</v>
+        <v>98.792699999999996</v>
       </c>
       <c r="Q298" s="9">
-        <v>-1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R298" s="13">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="S298" s="8">
-        <v>-4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
@@ -30651,19 +30651,19 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O299" s="10">
-        <v>95.6447</v>
+        <v>92.892600000000002</v>
       </c>
       <c r="P299" s="10">
-        <v>92.892600000000002</v>
+        <v>95.784599999999998</v>
       </c>
       <c r="Q299" s="9">
-        <v>-2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R299" s="13">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="S299" s="8">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
@@ -30708,16 +30708,16 @@
         <v>0.12</v>
       </c>
       <c r="O300" s="10">
-        <v>102.4191</v>
+        <v>102.3169</v>
       </c>
       <c r="P300" s="10">
-        <v>102.3169</v>
+        <v>102.1408</v>
       </c>
       <c r="Q300" s="9">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="R300" s="13">
-        <v>4.5999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="S300" s="8">
         <v>0</v>
@@ -30767,16 +30767,16 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O301" s="10">
-        <v>110.18859999999999</v>
+        <v>109.93380000000001</v>
       </c>
       <c r="P301" s="10">
-        <v>109.93380000000001</v>
+        <v>109.0872</v>
       </c>
       <c r="Q301" s="9">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="R301" s="13">
-        <v>8.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="S301" s="8">
         <v>0</v>
@@ -30826,19 +30826,19 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="O302" s="10">
-        <v>99.997600000000006</v>
+        <v>99.986400000000003</v>
       </c>
       <c r="P302" s="10">
-        <v>99.986400000000003</v>
+        <v>98.679299999999998</v>
       </c>
       <c r="Q302" s="9">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="R302" s="13">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="S302" s="8">
-        <v>0</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
@@ -30885,19 +30885,19 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="O303" s="10">
-        <v>95.402799999999999</v>
+        <v>93.930400000000006</v>
       </c>
       <c r="P303" s="10">
-        <v>93.930400000000006</v>
+        <v>91.978800000000007</v>
       </c>
       <c r="Q303" s="9">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="R303" s="13">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="S303" s="8">
-        <v>-5.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
@@ -30944,19 +30944,19 @@
         <v>0.219</v>
       </c>
       <c r="O304" s="10">
-        <v>107.6703</v>
+        <v>108.9534</v>
       </c>
       <c r="P304" s="10">
-        <v>108.9534</v>
+        <v>108.5085</v>
       </c>
       <c r="Q304" s="9">
-        <v>1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="R304" s="13">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="S304" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
@@ -31003,19 +31003,19 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O305" s="10">
-        <v>93.253200000000007</v>
+        <v>97.1023</v>
       </c>
       <c r="P305" s="10">
-        <v>97.1023</v>
+        <v>96.263900000000007</v>
       </c>
       <c r="Q305" s="9">
-        <v>4.0999999999999996</v>
+        <v>-0.9</v>
       </c>
       <c r="R305" s="13">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="S305" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
@@ -31062,16 +31062,16 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="O306" s="10">
-        <v>106.267</v>
+        <v>105.5675</v>
       </c>
       <c r="P306" s="10">
-        <v>105.5675</v>
+        <v>105.95440000000001</v>
       </c>
       <c r="Q306" s="9">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="R306" s="13">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="S306" s="8">
         <v>0</v>
@@ -31119,16 +31119,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O307" s="10">
-        <v>108.5972</v>
+        <v>107.6636</v>
       </c>
       <c r="P307" s="10">
-        <v>107.6636</v>
+        <v>108.0592</v>
       </c>
       <c r="Q307" s="9">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
       <c r="R307" s="13">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="S307" s="8">
         <v>0</v>
@@ -31176,16 +31176,16 @@
         <v>0.01</v>
       </c>
       <c r="O308" s="10">
-        <v>96.986400000000003</v>
+        <v>97.052599999999998</v>
       </c>
       <c r="P308" s="10">
-        <v>97.052599999999998</v>
+        <v>97.404899999999998</v>
       </c>
       <c r="Q308" s="9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R308" s="13">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="S308" s="8">
         <v>0</v>
@@ -31238,13 +31238,13 @@
         <v>100.5784</v>
       </c>
       <c r="P309" s="10">
-        <v>100.5784</v>
+        <v>100.3261</v>
       </c>
       <c r="Q309" s="9">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="R309" s="13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S309" s="8">
         <v>0</v>
@@ -31297,16 +31297,16 @@
         <v>104.7109</v>
       </c>
       <c r="P310" s="10">
-        <v>104.7109</v>
+        <v>105.3515</v>
       </c>
       <c r="Q310" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R310" s="13">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S310" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
@@ -31415,16 +31415,16 @@
         <v>102.6178</v>
       </c>
       <c r="P312" s="10">
-        <v>102.6178</v>
+        <v>104.27549999999999</v>
       </c>
       <c r="Q312" s="9">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R312" s="13">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="S312" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
@@ -31471,19 +31471,19 @@
         <v>1.9550000000000001</v>
       </c>
       <c r="O313" s="10">
-        <v>101.51090000000001</v>
+        <v>102.02970000000001</v>
       </c>
       <c r="P313" s="10">
-        <v>102.02970000000001</v>
+        <v>101.9517</v>
       </c>
       <c r="Q313" s="9">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="R313" s="13">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="S313" s="8">
-        <v>0.01</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
@@ -31530,19 +31530,19 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="O314" s="10">
-        <v>101.0976</v>
+        <v>101.8811</v>
       </c>
       <c r="P314" s="10">
-        <v>101.8811</v>
+        <v>101.7804</v>
       </c>
       <c r="Q314" s="9">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="R314" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S314" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
@@ -31589,19 +31589,19 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O315" s="10">
-        <v>96.545900000000003</v>
+        <v>96.465199999999996</v>
       </c>
       <c r="P315" s="10">
-        <v>96.465199999999996</v>
+        <v>97.25</v>
       </c>
       <c r="Q315" s="9">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="R315" s="13">
-        <v>-7</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="S315" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
@@ -31648,16 +31648,16 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="O316" s="10">
-        <v>101.6058</v>
+        <v>101.8895</v>
       </c>
       <c r="P316" s="10">
-        <v>101.8895</v>
+        <v>101.5951</v>
       </c>
       <c r="Q316" s="9">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="R316" s="13">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="S316" s="8">
         <v>0</v>
@@ -31707,19 +31707,19 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="O317" s="10">
-        <v>102.2441</v>
+        <v>103.3914</v>
       </c>
       <c r="P317" s="10">
-        <v>103.3914</v>
+        <v>103.04819999999999</v>
       </c>
       <c r="Q317" s="9">
-        <v>1.1000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="R317" s="13">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="S317" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
@@ -31766,19 +31766,19 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="O318" s="10">
-        <v>101.3955</v>
+        <v>101.4969</v>
       </c>
       <c r="P318" s="10">
-        <v>101.4969</v>
+        <v>101.179</v>
       </c>
       <c r="Q318" s="9">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="R318" s="13">
         <v>1.8</v>
       </c>
       <c r="S318" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
@@ -31825,19 +31825,19 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="O319" s="10">
-        <v>101.0227</v>
+        <v>101.0189</v>
       </c>
       <c r="P319" s="10">
-        <v>101.0189</v>
+        <v>100.753</v>
       </c>
       <c r="Q319" s="9">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="R319" s="13">
         <v>1.8</v>
       </c>
       <c r="S319" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
@@ -31939,19 +31939,19 @@
         <v>0.189</v>
       </c>
       <c r="O321" s="10">
-        <v>101.7544</v>
+        <v>101.7483</v>
       </c>
       <c r="P321" s="10">
-        <v>101.7483</v>
+        <v>101.3282</v>
       </c>
       <c r="Q321" s="9">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="R321" s="13">
         <v>0.4</v>
       </c>
       <c r="S321" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
@@ -31998,19 +31998,19 @@
         <v>6.2E-2</v>
       </c>
       <c r="O322" s="10">
-        <v>103.5365</v>
+        <v>104.23520000000001</v>
       </c>
       <c r="P322" s="10">
-        <v>104.23520000000001</v>
+        <v>103.4151</v>
       </c>
       <c r="Q322" s="9">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="R322" s="13">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="S322" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
@@ -32116,19 +32116,19 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="O324" s="10">
-        <v>102.5838</v>
+        <v>103.255</v>
       </c>
       <c r="P324" s="10">
-        <v>103.255</v>
+        <v>103.596</v>
       </c>
       <c r="Q324" s="9">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="R324" s="13">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="S324" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
@@ -32175,19 +32175,19 @@
         <v>0.129</v>
       </c>
       <c r="O325" s="10">
-        <v>101.8967</v>
+        <v>103.59910000000001</v>
       </c>
       <c r="P325" s="10">
-        <v>103.59910000000001</v>
+        <v>104.0994</v>
       </c>
       <c r="Q325" s="9">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="R325" s="13">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="S325" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
@@ -32234,19 +32234,19 @@
         <v>0.47299999999999998</v>
       </c>
       <c r="O326" s="10">
-        <v>102.7731</v>
+        <v>103.163</v>
       </c>
       <c r="P326" s="10">
-        <v>103.163</v>
+        <v>103.46040000000001</v>
       </c>
       <c r="Q326" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R326" s="13">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S326" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
@@ -32293,19 +32293,19 @@
         <v>0.36</v>
       </c>
       <c r="O327" s="10">
-        <v>98.647800000000004</v>
+        <v>99.423199999999994</v>
       </c>
       <c r="P327" s="10">
-        <v>99.423199999999994</v>
+        <v>98.905100000000004</v>
       </c>
       <c r="Q327" s="9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="R327" s="13">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="S327" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
@@ -32411,19 +32411,19 @@
         <v>2.2629999999999999</v>
       </c>
       <c r="O329" s="10">
-        <v>101.092</v>
+        <v>101.17910000000001</v>
       </c>
       <c r="P329" s="10">
-        <v>101.17910000000001</v>
+        <v>101.3257</v>
       </c>
       <c r="Q329" s="9">
         <v>0.1</v>
       </c>
       <c r="R329" s="13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S329" s="8">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
@@ -32470,19 +32470,19 @@
         <v>1.34</v>
       </c>
       <c r="O330" s="10">
-        <v>101.29940000000001</v>
+        <v>101.4374</v>
       </c>
       <c r="P330" s="10">
-        <v>101.4374</v>
+        <v>101.63720000000001</v>
       </c>
       <c r="Q330" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R330" s="13">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S330" s="8">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
@@ -32588,19 +32588,19 @@
         <v>1.3260000000000001</v>
       </c>
       <c r="O332" s="10">
-        <v>101.2891</v>
+        <v>101.4286</v>
       </c>
       <c r="P332" s="10">
-        <v>101.4286</v>
+        <v>101.6305</v>
       </c>
       <c r="Q332" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R332" s="13">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S332" s="8">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
@@ -32648,16 +32648,16 @@
         <v>101.4006</v>
       </c>
       <c r="P333" s="10">
-        <v>101.4006</v>
+        <v>101.2975</v>
       </c>
       <c r="Q333" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R333" s="13">
-        <v>1.4</v>
+        <v>-0.3</v>
       </c>
       <c r="S333" s="8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
@@ -32702,19 +32702,19 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="O334" s="10">
-        <v>98.637900000000002</v>
+        <v>99.416700000000006</v>
       </c>
       <c r="P334" s="10">
-        <v>99.416700000000006</v>
+        <v>100.749</v>
       </c>
       <c r="Q334" s="9">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="R334" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S334" s="8">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
@@ -32818,19 +32818,19 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="O336" s="10">
-        <v>101.9593</v>
+        <v>101.9909</v>
       </c>
       <c r="P336" s="10">
-        <v>101.9909</v>
+        <v>102.1392</v>
       </c>
       <c r="Q336" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R336" s="13">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="S336" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
@@ -32877,16 +32877,16 @@
         <v>6.3E-2</v>
       </c>
       <c r="O337" s="10">
-        <v>99.267499999999998</v>
+        <v>99.387699999999995</v>
       </c>
       <c r="P337" s="10">
         <v>99.387699999999995</v>
       </c>
       <c r="Q337" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R337" s="13">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="S337" s="8">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="R338" s="13">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S338" s="8">
         <v>0</v>
@@ -32991,13 +32991,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="O339" s="10">
-        <v>98.8489</v>
+        <v>99.009</v>
       </c>
       <c r="P339" s="10">
         <v>99.009</v>
       </c>
       <c r="Q339" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R339" s="13">
         <v>-1</v>
@@ -33109,16 +33109,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="O341" s="10">
-        <v>102.9888</v>
+        <v>102.99</v>
       </c>
       <c r="P341" s="10">
-        <v>102.99</v>
+        <v>102.99630000000001</v>
       </c>
       <c r="Q341" s="9">
         <v>0</v>
       </c>
       <c r="R341" s="13">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="S341" s="8">
         <v>0</v>
@@ -33166,16 +33166,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="O342" s="10">
-        <v>102.9888</v>
+        <v>102.99</v>
       </c>
       <c r="P342" s="10">
-        <v>102.99</v>
+        <v>102.99630000000001</v>
       </c>
       <c r="Q342" s="9">
         <v>0</v>
       </c>
       <c r="R342" s="13">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="S342" s="8">
         <v>0</v>
@@ -33225,19 +33225,19 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O343" s="10">
-        <v>100.3668</v>
+        <v>100.53270000000001</v>
       </c>
       <c r="P343" s="10">
-        <v>100.53270000000001</v>
+        <v>102.29130000000001</v>
       </c>
       <c r="Q343" s="9">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="R343" s="13">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="S343" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
@@ -33343,19 +33343,19 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="O345" s="10">
-        <v>102.0637</v>
+        <v>102.2799</v>
       </c>
       <c r="P345" s="10">
-        <v>102.2799</v>
+        <v>102.36190000000001</v>
       </c>
       <c r="Q345" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R345" s="13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S345" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
@@ -33402,16 +33402,16 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O346" s="10">
-        <v>103.00920000000001</v>
+        <v>103.1005</v>
       </c>
       <c r="P346" s="10">
-        <v>103.1005</v>
+        <v>103.288</v>
       </c>
       <c r="Q346" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R346" s="13">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="S346" s="8">
         <v>0</v>
@@ -33461,16 +33461,16 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="O347" s="10">
-        <v>103.3276</v>
+        <v>103.42400000000001</v>
       </c>
       <c r="P347" s="10">
-        <v>103.42400000000001</v>
+        <v>103.73860000000001</v>
       </c>
       <c r="Q347" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R347" s="13">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="S347" s="8">
         <v>0</v>
@@ -33520,16 +33520,16 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="O348" s="10">
-        <v>101.999</v>
+        <v>102.0278</v>
       </c>
       <c r="P348" s="10">
-        <v>102.0278</v>
+        <v>102.2324</v>
       </c>
       <c r="Q348" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R348" s="13">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S348" s="8">
         <v>0</v>
@@ -33579,16 +33579,16 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O349" s="10">
-        <v>102.7597</v>
+        <v>102.9392</v>
       </c>
       <c r="P349" s="10">
-        <v>102.9392</v>
+        <v>102.8914</v>
       </c>
       <c r="Q349" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R349" s="13">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="S349" s="8">
         <v>0</v>
@@ -33641,13 +33641,13 @@
         <v>102.4837</v>
       </c>
       <c r="P350" s="10">
-        <v>102.4837</v>
+        <v>102.5017</v>
       </c>
       <c r="Q350" s="9">
         <v>0</v>
       </c>
       <c r="R350" s="13">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S350" s="8">
         <v>0</v>
@@ -33704,7 +33704,7 @@
         <v>0</v>
       </c>
       <c r="R351" s="13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S351" s="8">
         <v>0</v>
@@ -33755,13 +33755,13 @@
         <v>102.6156</v>
       </c>
       <c r="P352" s="10">
-        <v>102.6156</v>
+        <v>102.6357</v>
       </c>
       <c r="Q352" s="9">
         <v>0</v>
       </c>
       <c r="R352" s="13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S352" s="8">
         <v>0</v>
@@ -33811,16 +33811,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O353" s="10">
-        <v>95.993899999999996</v>
+        <v>96.025400000000005</v>
       </c>
       <c r="P353" s="10">
-        <v>96.025400000000005</v>
+        <v>96.367099999999994</v>
       </c>
       <c r="Q353" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R353" s="13">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="S353" s="8">
         <v>0</v>
@@ -33870,19 +33870,19 @@
         <v>0.15</v>
       </c>
       <c r="O354" s="10">
-        <v>101.74939999999999</v>
+        <v>102.887</v>
       </c>
       <c r="P354" s="10">
-        <v>102.887</v>
+        <v>102.88930000000001</v>
       </c>
       <c r="Q354" s="9">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R354" s="13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="S354" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
@@ -33929,19 +33929,19 @@
         <v>0.497</v>
       </c>
       <c r="O355" s="10">
-        <v>117.4256</v>
+        <v>122.727</v>
       </c>
       <c r="P355" s="10">
-        <v>122.727</v>
+        <v>131.2268</v>
       </c>
       <c r="Q355" s="9">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="R355" s="13">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="S355" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
@@ -33988,19 +33988,19 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="O356" s="10">
-        <v>127.1332</v>
+        <v>135.7278</v>
       </c>
       <c r="P356" s="10">
-        <v>135.7278</v>
+        <v>146.50630000000001</v>
       </c>
       <c r="Q356" s="9">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="R356" s="13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S356" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
@@ -34047,19 +34047,19 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="O357" s="10">
-        <v>95.287000000000006</v>
+        <v>94.617800000000003</v>
       </c>
       <c r="P357" s="10">
-        <v>94.617800000000003</v>
+        <v>98.771000000000001</v>
       </c>
       <c r="Q357" s="9">
-        <v>-0.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R357" s="13">
-        <v>-4.2</v>
+        <v>2.4</v>
       </c>
       <c r="S357" s="8">
-        <v>-1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
@@ -34460,19 +34460,19 @@
         <v>5.8230000000000004</v>
       </c>
       <c r="O364" s="10">
-        <v>102.8665</v>
+        <v>102.84139999999999</v>
       </c>
       <c r="P364" s="10">
-        <v>102.84139999999999</v>
+        <v>103.3329</v>
       </c>
       <c r="Q364" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R364" s="13">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="S364" s="8">
-        <v>-1E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
@@ -34519,10 +34519,10 @@
         <v>4.41</v>
       </c>
       <c r="O365" s="10">
-        <v>101.59529999999999</v>
+        <v>101.7936</v>
       </c>
       <c r="P365" s="10">
-        <v>101.7936</v>
+        <v>102.0356</v>
       </c>
       <c r="Q365" s="9">
         <v>0.2</v>
@@ -34531,7 +34531,7 @@
         <v>1.7</v>
       </c>
       <c r="S365" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
@@ -34578,19 +34578,19 @@
         <v>4.0670000000000002</v>
       </c>
       <c r="O366" s="10">
-        <v>101.4782</v>
+        <v>101.6932</v>
       </c>
       <c r="P366" s="10">
-        <v>101.6932</v>
+        <v>101.9554</v>
       </c>
       <c r="Q366" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R366" s="13">
         <v>1.5</v>
       </c>
       <c r="S366" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
@@ -34637,19 +34637,19 @@
         <v>2.7120000000000002</v>
       </c>
       <c r="O367" s="10">
-        <v>101.494</v>
+        <v>101.7077</v>
       </c>
       <c r="P367" s="10">
-        <v>101.7077</v>
+        <v>102.0423</v>
       </c>
       <c r="Q367" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R367" s="13">
         <v>1.5</v>
       </c>
       <c r="S367" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
@@ -34694,19 +34694,19 @@
         <v>1.6870000000000001</v>
       </c>
       <c r="O368" s="10">
-        <v>101.6893</v>
+        <v>101.90300000000001</v>
       </c>
       <c r="P368" s="10">
-        <v>101.90300000000001</v>
+        <v>102.3229</v>
       </c>
       <c r="Q368" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R368" s="13">
         <v>1.7</v>
       </c>
       <c r="S368" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
@@ -34751,16 +34751,16 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="O369" s="10">
-        <v>101.1144</v>
+        <v>101.35899999999999</v>
       </c>
       <c r="P369" s="10">
-        <v>101.35899999999999</v>
+        <v>101.58150000000001</v>
       </c>
       <c r="Q369" s="9">
         <v>0.2</v>
       </c>
       <c r="R369" s="13">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S369" s="8">
         <v>2E-3</v>
@@ -34808,16 +34808,16 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="O370" s="10">
-        <v>101.2877</v>
+        <v>101.46040000000001</v>
       </c>
       <c r="P370" s="10">
-        <v>101.46040000000001</v>
+        <v>101.7431</v>
       </c>
       <c r="Q370" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R370" s="13">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S370" s="8">
         <v>1E-3</v>
@@ -34865,13 +34865,13 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="O371" s="10">
-        <v>101.8098</v>
+        <v>101.9862</v>
       </c>
       <c r="P371" s="10">
-        <v>101.9862</v>
+        <v>102.3665</v>
       </c>
       <c r="Q371" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R371" s="13">
         <v>1.3</v>
@@ -34922,16 +34922,16 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="O372" s="10">
-        <v>100.5352</v>
+        <v>100.7169</v>
       </c>
       <c r="P372" s="10">
-        <v>100.7169</v>
+        <v>100.8659</v>
       </c>
       <c r="Q372" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R372" s="13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S372" s="8">
         <v>0</v>
@@ -34979,16 +34979,16 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O373" s="10">
-        <v>100.5508</v>
+        <v>100.6835</v>
       </c>
       <c r="P373" s="10">
-        <v>100.6835</v>
+        <v>100.8105</v>
       </c>
       <c r="Q373" s="9">
         <v>0.1</v>
       </c>
       <c r="R373" s="13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="S373" s="8">
         <v>0</v>
@@ -35036,16 +35036,16 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="O374" s="10">
-        <v>100.9114</v>
+        <v>101.2514</v>
       </c>
       <c r="P374" s="10">
-        <v>101.2514</v>
+        <v>101.3943</v>
       </c>
       <c r="Q374" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R374" s="13">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="S374" s="8">
         <v>1E-3</v>
@@ -35093,19 +35093,19 @@
         <v>0.185</v>
       </c>
       <c r="O375" s="10">
-        <v>101.14570000000001</v>
+        <v>101.4813</v>
       </c>
       <c r="P375" s="10">
-        <v>101.4813</v>
+        <v>101.6442</v>
       </c>
       <c r="Q375" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R375" s="13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S375" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
@@ -35150,19 +35150,19 @@
         <v>0.2</v>
       </c>
       <c r="O376" s="10">
-        <v>100.6584</v>
+        <v>101.00230000000001</v>
       </c>
       <c r="P376" s="10">
-        <v>101.00230000000001</v>
+        <v>101.12690000000001</v>
       </c>
       <c r="Q376" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R376" s="13">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="S376" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
@@ -35266,19 +35266,19 @@
         <v>1.355</v>
       </c>
       <c r="O378" s="10">
-        <v>101.05289999999999</v>
+        <v>101.2694</v>
       </c>
       <c r="P378" s="10">
-        <v>101.2694</v>
+        <v>101.387</v>
       </c>
       <c r="Q378" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R378" s="13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S378" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
@@ -35323,19 +35323,19 @@
         <v>1.1819999999999999</v>
       </c>
       <c r="O379" s="10">
-        <v>101.3069</v>
+        <v>101.5146</v>
       </c>
       <c r="P379" s="10">
-        <v>101.5146</v>
+        <v>101.6224</v>
       </c>
       <c r="Q379" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R379" s="13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="S379" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
@@ -35380,19 +35380,19 @@
         <v>0.126</v>
       </c>
       <c r="O380" s="10">
-        <v>98.586500000000001</v>
+        <v>98.963099999999997</v>
       </c>
       <c r="P380" s="10">
-        <v>98.963099999999997</v>
+        <v>99.214600000000004</v>
       </c>
       <c r="Q380" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R380" s="13">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="S380" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
       <c r="R381" s="13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S381" s="8">
         <v>0</v>
@@ -35669,19 +35669,19 @@
         <v>1.413</v>
       </c>
       <c r="O385" s="10">
-        <v>108.03230000000001</v>
+        <v>107.2813</v>
       </c>
       <c r="P385" s="10">
-        <v>107.2813</v>
+        <v>108.5882</v>
       </c>
       <c r="Q385" s="9">
-        <v>-0.7</v>
+        <v>1.2</v>
       </c>
       <c r="R385" s="13">
-        <v>-2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="S385" s="8">
-        <v>-0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
@@ -35728,19 +35728,19 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="O386" s="10">
-        <v>115.6399</v>
+        <v>116.5669</v>
       </c>
       <c r="P386" s="10">
-        <v>116.5669</v>
+        <v>117.1075</v>
       </c>
       <c r="Q386" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R386" s="13">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="S386" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
@@ -35787,19 +35787,19 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="O387" s="10">
-        <v>90.259299999999996</v>
+        <v>85.742400000000004</v>
       </c>
       <c r="P387" s="10">
-        <v>85.742400000000004</v>
+        <v>88.763099999999994</v>
       </c>
       <c r="Q387" s="9">
-        <v>-5</v>
+        <v>3.5</v>
       </c>
       <c r="R387" s="13">
-        <v>-15.4</v>
+        <v>-12.5</v>
       </c>
       <c r="S387" s="8">
-        <v>-1.7999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
@@ -35846,19 +35846,19 @@
         <v>5.883</v>
       </c>
       <c r="O388" s="10">
-        <v>100.2089</v>
+        <v>100.9061</v>
       </c>
       <c r="P388" s="10">
-        <v>100.9061</v>
+        <v>100.86320000000001</v>
       </c>
       <c r="Q388" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="R388" s="13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S388" s="8">
-        <v>0.04</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
@@ -35905,19 +35905,19 @@
         <v>1.865</v>
       </c>
       <c r="O389" s="10">
-        <v>100.84869999999999</v>
+        <v>102.3349</v>
       </c>
       <c r="P389" s="10">
-        <v>102.3349</v>
+        <v>102.3806</v>
       </c>
       <c r="Q389" s="9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R389" s="13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="S389" s="8">
-        <v>2.7E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="390" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -35964,19 +35964,19 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="O390" s="10">
-        <v>100.28579999999999</v>
+        <v>100.3531</v>
       </c>
       <c r="P390" s="10">
         <v>100.3531</v>
       </c>
       <c r="Q390" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R390" s="13">
         <v>0</v>
       </c>
       <c r="S390" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
@@ -36023,13 +36023,13 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="O391" s="10">
-        <v>100.261</v>
+        <v>100.3263</v>
       </c>
       <c r="P391" s="10">
         <v>100.3263</v>
       </c>
       <c r="Q391" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R391" s="13">
         <v>-0.2</v>
@@ -36082,13 +36082,13 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="O392" s="10">
-        <v>100.41030000000001</v>
+        <v>100.50490000000001</v>
       </c>
       <c r="P392" s="10">
         <v>100.50490000000001</v>
       </c>
       <c r="Q392" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R392" s="13">
         <v>0.1</v>
@@ -36141,7 +36141,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="O393" s="10">
-        <v>100.1056</v>
+        <v>100.1328</v>
       </c>
       <c r="P393" s="10">
         <v>100.1328</v>
@@ -36200,19 +36200,19 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="O394" s="10">
-        <v>101.0916</v>
+        <v>98.791200000000003</v>
       </c>
       <c r="P394" s="10">
-        <v>98.791200000000003</v>
+        <v>99.665000000000006</v>
       </c>
       <c r="Q394" s="9">
-        <v>-2.2999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="R394" s="13">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="S394" s="8">
-        <v>-2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
@@ -36259,19 +36259,19 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="O395" s="10">
-        <v>101.2777</v>
+        <v>104.3023</v>
       </c>
       <c r="P395" s="10">
-        <v>104.3023</v>
+        <v>104.33199999999999</v>
       </c>
       <c r="Q395" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R395" s="13">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="S395" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
@@ -36318,19 +36318,19 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O396" s="10">
-        <v>99.691800000000001</v>
+        <v>99.205399999999997</v>
       </c>
       <c r="P396" s="10">
-        <v>99.205399999999997</v>
+        <v>100.02030000000001</v>
       </c>
       <c r="Q396" s="9">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R396" s="13">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S396" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
@@ -36377,19 +36377,19 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="O397" s="10">
-        <v>101.393</v>
+        <v>104.7062</v>
       </c>
       <c r="P397" s="10">
-        <v>104.7062</v>
+        <v>104.6712</v>
       </c>
       <c r="Q397" s="9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="R397" s="13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="S397" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
@@ -36434,19 +36434,19 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O398" s="10">
-        <v>99.849199999999996</v>
+        <v>102.3103</v>
       </c>
       <c r="P398" s="10">
-        <v>102.3103</v>
+        <v>102.599</v>
       </c>
       <c r="Q398" s="9">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="R398" s="13">
-        <v>-2.1</v>
+        <v>0.6</v>
       </c>
       <c r="S398" s="8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
@@ -36491,16 +36491,16 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="O399" s="10">
-        <v>104.8309</v>
+        <v>105.56870000000001</v>
       </c>
       <c r="P399" s="10">
-        <v>105.56870000000001</v>
+        <v>107.17449999999999</v>
       </c>
       <c r="Q399" s="9">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="R399" s="13">
-        <v>-1.8</v>
+        <v>1.2</v>
       </c>
       <c r="S399" s="8">
         <v>1E-3</v>
@@ -36548,19 +36548,19 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O400" s="10">
-        <v>105.6435</v>
+        <v>104.47069999999999</v>
       </c>
       <c r="P400" s="10">
-        <v>104.47069999999999</v>
+        <v>109.5142</v>
       </c>
       <c r="Q400" s="9">
-        <v>-1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="R400" s="13">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="S400" s="8">
-        <v>-1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
@@ -36605,19 +36605,19 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="O401" s="10">
-        <v>100.91930000000001</v>
+        <v>106.20059999999999</v>
       </c>
       <c r="P401" s="10">
-        <v>106.20059999999999</v>
+        <v>104.9289</v>
       </c>
       <c r="Q401" s="9">
-        <v>5.2</v>
+        <v>-1.2</v>
       </c>
       <c r="R401" s="13">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="S401" s="8">
-        <v>2.4E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
@@ -36662,19 +36662,19 @@
         <v>0.248</v>
       </c>
       <c r="O402" s="10">
-        <v>98.108199999999997</v>
+        <v>102.37179999999999</v>
       </c>
       <c r="P402" s="10">
-        <v>102.37179999999999</v>
+        <v>101.0356</v>
       </c>
       <c r="Q402" s="9">
-        <v>4.3</v>
+        <v>-1.3</v>
       </c>
       <c r="R402" s="13">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="S402" s="8">
-        <v>0.01</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
@@ -36719,19 +36719,19 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="O403" s="10">
-        <v>103.7859</v>
+        <v>110.1786</v>
       </c>
       <c r="P403" s="10">
-        <v>110.1786</v>
+        <v>108.9811</v>
       </c>
       <c r="Q403" s="9">
-        <v>6.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R403" s="13">
-        <v>-1.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S403" s="8">
-        <v>1.4E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
@@ -36776,19 +36776,19 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="O404" s="10">
-        <v>100.7041</v>
+        <v>101.8896</v>
       </c>
       <c r="P404" s="10">
-        <v>101.8896</v>
+        <v>102.56570000000001</v>
       </c>
       <c r="Q404" s="9">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="R404" s="13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S404" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
@@ -36835,19 +36835,19 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="O405" s="10">
-        <v>100.2015</v>
+        <v>101.4464</v>
       </c>
       <c r="P405" s="10">
-        <v>101.4464</v>
+        <v>100.68940000000001</v>
       </c>
       <c r="Q405" s="9">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="R405" s="13">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="S405" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="406" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -36894,19 +36894,19 @@
         <v>0.108</v>
       </c>
       <c r="O406" s="10">
-        <v>96.427300000000002</v>
+        <v>100.29389999999999</v>
       </c>
       <c r="P406" s="10">
-        <v>100.29389999999999</v>
+        <v>98.978499999999997</v>
       </c>
       <c r="Q406" s="9">
-        <v>4</v>
+        <v>-1.3</v>
       </c>
       <c r="R406" s="13">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="S406" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
@@ -36956,16 +36956,16 @@
         <v>100.60680000000001</v>
       </c>
       <c r="P407" s="10">
-        <v>100.60680000000001</v>
+        <v>101.747</v>
       </c>
       <c r="Q407" s="9">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R407" s="13">
         <v>-1.8</v>
       </c>
       <c r="S407" s="8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
@@ -37012,19 +37012,19 @@
         <v>0.217</v>
       </c>
       <c r="O408" s="10">
-        <v>101.821</v>
+        <v>102.4866</v>
       </c>
       <c r="P408" s="10">
-        <v>102.4866</v>
+        <v>100.9024</v>
       </c>
       <c r="Q408" s="9">
-        <v>0.7</v>
+        <v>-1.5</v>
       </c>
       <c r="R408" s="13">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="S408" s="8">
-        <v>1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
@@ -37366,19 +37366,19 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="O414" s="10">
-        <v>101.3283</v>
+        <v>102.6765</v>
       </c>
       <c r="P414" s="10">
         <v>102.6765</v>
       </c>
       <c r="Q414" s="9">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="R414" s="13">
         <v>3.2</v>
       </c>
       <c r="S414" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
@@ -37423,7 +37423,7 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="O415" s="10">
-        <v>100.3377</v>
+        <v>100.3789</v>
       </c>
       <c r="P415" s="10">
         <v>100.3789</v>
@@ -37480,19 +37480,19 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="O416" s="10">
-        <v>101.5294</v>
+        <v>103.98560000000001</v>
       </c>
       <c r="P416" s="10">
         <v>103.98560000000001</v>
       </c>
       <c r="Q416" s="9">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R416" s="13">
         <v>2.8</v>
       </c>
       <c r="S416" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -37539,7 +37539,7 @@
         <v>0.247</v>
       </c>
       <c r="O417" s="10">
-        <v>101.2398</v>
+        <v>101.2403</v>
       </c>
       <c r="P417" s="10">
         <v>101.2403</v>
@@ -37598,7 +37598,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="O418" s="10">
-        <v>100.0317</v>
+        <v>100.0334</v>
       </c>
       <c r="P418" s="10">
         <v>100.0334</v>
@@ -37838,19 +37838,19 @@
         <v>100</v>
       </c>
       <c r="O424" s="10">
-        <v>103.3351</v>
+        <v>104.0068</v>
       </c>
       <c r="P424" s="10">
-        <v>104.0068</v>
+        <v>104.5312</v>
       </c>
       <c r="Q424" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R424" s="13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="S424" s="8">
-        <v>0.65</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
@@ -37897,19 +37897,19 @@
         <v>12.608000000000001</v>
       </c>
       <c r="O425" s="10">
-        <v>99.493899999999996</v>
+        <v>101.32089999999999</v>
       </c>
       <c r="P425" s="10">
-        <v>101.32089999999999</v>
+        <v>102.40470000000001</v>
       </c>
       <c r="Q425" s="9">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R425" s="13">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="S425" s="8">
-        <v>0.23</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
@@ -37956,19 +37956,19 @@
         <v>3.4820000000000002</v>
       </c>
       <c r="O426" s="10">
-        <v>101.25239999999999</v>
+        <v>102.99160000000001</v>
       </c>
       <c r="P426" s="10">
-        <v>102.99160000000001</v>
+        <v>101.7574</v>
       </c>
       <c r="Q426" s="9">
-        <v>1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="R426" s="13">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="S426" s="8">
-        <v>5.8999999999999997E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
@@ -38015,19 +38015,19 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="O427" s="10">
-        <v>102.5698</v>
+        <v>104.0205</v>
       </c>
       <c r="P427" s="10">
-        <v>104.0205</v>
+        <v>102.8904</v>
       </c>
       <c r="Q427" s="9">
-        <v>1.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R427" s="13">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="S427" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.25">
@@ -38074,19 +38074,19 @@
         <v>26.594999999999999</v>
       </c>
       <c r="O428" s="10">
-        <v>104.8824</v>
+        <v>105.4948</v>
       </c>
       <c r="P428" s="10">
-        <v>105.4948</v>
+        <v>105.8232</v>
       </c>
       <c r="Q428" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R428" s="13">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="S428" s="8">
-        <v>0.156</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
@@ -38133,19 +38133,19 @@
         <v>4.5179999999999998</v>
       </c>
       <c r="O429" s="10">
-        <v>106.3107</v>
+        <v>106.0671</v>
       </c>
       <c r="P429" s="10">
-        <v>106.0671</v>
+        <v>106.33</v>
       </c>
       <c r="Q429" s="9">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="R429" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="S429" s="8">
-        <v>-1.0999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.25">
@@ -38192,10 +38192,10 @@
         <v>16.670999999999999</v>
       </c>
       <c r="O430" s="10">
-        <v>99.406800000000004</v>
+        <v>99.397199999999998</v>
       </c>
       <c r="P430" s="10">
-        <v>99.397199999999998</v>
+        <v>99.383499999999998</v>
       </c>
       <c r="Q430" s="9">
         <v>0</v>
@@ -38251,19 +38251,19 @@
         <v>10.976000000000001</v>
       </c>
       <c r="O431" s="10">
-        <v>113.8198</v>
+        <v>114.8039</v>
       </c>
       <c r="P431" s="10">
-        <v>114.8039</v>
+        <v>117.6463</v>
       </c>
       <c r="Q431" s="9">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="R431" s="13">
-        <v>10.3</v>
+        <v>13.1</v>
       </c>
       <c r="S431" s="8">
-        <v>9.9000000000000005E-2</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.25">
@@ -38310,19 +38310,19 @@
         <v>3.0289999999999999</v>
       </c>
       <c r="O432" s="10">
-        <v>99.885499999999993</v>
+        <v>100.1254</v>
       </c>
       <c r="P432" s="10">
-        <v>100.1254</v>
+        <v>100.09099999999999</v>
       </c>
       <c r="Q432" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R432" s="13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S432" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.25">
@@ -38369,19 +38369,19 @@
         <v>6.7750000000000004</v>
       </c>
       <c r="O433" s="10">
-        <v>102.7645</v>
+        <v>103.294</v>
       </c>
       <c r="P433" s="10">
-        <v>103.294</v>
+        <v>103.9025</v>
       </c>
       <c r="Q433" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R433" s="13">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S433" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.25">
@@ -38487,19 +38487,19 @@
         <v>5.8230000000000004</v>
       </c>
       <c r="O435" s="10">
-        <v>102.8665</v>
+        <v>102.84139999999999</v>
       </c>
       <c r="P435" s="10">
-        <v>102.84139999999999</v>
+        <v>103.3329</v>
       </c>
       <c r="Q435" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R435" s="13">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="S435" s="8">
-        <v>-1E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.25">
@@ -38546,19 +38546,19 @@
         <v>5.883</v>
       </c>
       <c r="O436" s="10">
-        <v>100.2089</v>
+        <v>100.9061</v>
       </c>
       <c r="P436" s="10">
-        <v>100.9061</v>
+        <v>100.86320000000001</v>
       </c>
       <c r="Q436" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="R436" s="13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S436" s="8">
-        <v>0.04</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.25">
@@ -38664,19 +38664,19 @@
         <v>43.984999999999999</v>
       </c>
       <c r="O440" s="10">
-        <v>105.6691</v>
+        <v>106.8139</v>
       </c>
       <c r="P440" s="10">
-        <v>106.8139</v>
+        <v>107.66379999999999</v>
       </c>
       <c r="Q440" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="R440" s="13">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="S440" s="8">
-        <v>0.48399999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.25">
@@ -38717,19 +38717,19 @@
         <v>28.597000000000001</v>
       </c>
       <c r="O441" s="10">
-        <v>105.7334</v>
+        <v>107.2</v>
       </c>
       <c r="P441" s="10">
-        <v>107.2</v>
+        <v>108.4966</v>
       </c>
       <c r="Q441" s="9">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="R441" s="13">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="S441" s="8">
-        <v>0.40300000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.25">
@@ -38770,19 +38770,19 @@
         <v>5.5940000000000003</v>
       </c>
       <c r="O442" s="10">
-        <v>103.10939999999999</v>
+        <v>104.006</v>
       </c>
       <c r="P442" s="10">
-        <v>104.006</v>
+        <v>103.41840000000001</v>
       </c>
       <c r="Q442" s="9">
-        <v>0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="R442" s="13">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S442" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.25">
@@ -38823,19 +38823,19 @@
         <v>9.7940000000000005</v>
       </c>
       <c r="O443" s="10">
-        <v>107.068</v>
+        <v>107.4101</v>
       </c>
       <c r="P443" s="10">
-        <v>107.4101</v>
+        <v>107.7811</v>
       </c>
       <c r="Q443" s="9">
         <v>0.3</v>
       </c>
       <c r="R443" s="13">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="S443" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.25">
@@ -38897,19 +38897,19 @@
         <v>56.015000000000001</v>
       </c>
       <c r="O445" s="10">
-        <v>101.5853</v>
+        <v>101.8905</v>
       </c>
       <c r="P445" s="10">
-        <v>101.8905</v>
+        <v>102.1627</v>
       </c>
       <c r="Q445" s="9">
         <v>0.3</v>
       </c>
       <c r="R445" s="13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="S445" s="8">
-        <v>0.16600000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.25">
@@ -38950,19 +38950,19 @@
         <v>45.762</v>
       </c>
       <c r="O446" s="10">
-        <v>101.95869999999999</v>
+        <v>102.32859999999999</v>
       </c>
       <c r="P446" s="10">
-        <v>102.32859999999999</v>
+        <v>102.6644</v>
       </c>
       <c r="Q446" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R446" s="13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S446" s="8">
-        <v>0.16400000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.25">
@@ -39003,19 +39003,19 @@
         <v>10.253</v>
       </c>
       <c r="O447" s="10">
-        <v>99.952799999999996</v>
+        <v>99.9726</v>
       </c>
       <c r="P447" s="10">
-        <v>99.9726</v>
+        <v>99.964200000000005</v>
       </c>
       <c r="Q447" s="9">
         <v>0</v>
       </c>
       <c r="R447" s="13">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S447" s="8">
-        <v>2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.25">
@@ -39121,19 +39121,19 @@
         <v>75.015000000000001</v>
       </c>
       <c r="O451" s="10">
-        <v>101.57640000000001</v>
+        <v>102.0628</v>
       </c>
       <c r="P451" s="10">
-        <v>102.0628</v>
+        <v>102.33069999999999</v>
       </c>
       <c r="Q451" s="9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R451" s="13">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S451" s="8">
-        <v>0.35599999999999998</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
@@ -39174,19 +39174,19 @@
         <v>24.984999999999999</v>
       </c>
       <c r="O452" s="10">
-        <v>108.877</v>
+        <v>110.1219</v>
       </c>
       <c r="P452" s="10">
-        <v>110.1219</v>
+        <v>111.4387</v>
       </c>
       <c r="Q452" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="R452" s="13">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="S452" s="8">
-        <v>0.29499999999999998</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
@@ -39292,10 +39292,10 @@
         <v>16.670999999999999</v>
       </c>
       <c r="O456" s="10">
-        <v>99.406800000000004</v>
+        <v>99.397199999999998</v>
       </c>
       <c r="P456" s="10">
-        <v>99.397199999999998</v>
+        <v>99.383499999999998</v>
       </c>
       <c r="Q456" s="9">
         <v>0</v>
@@ -39345,19 +39345,19 @@
         <v>83.328999999999994</v>
       </c>
       <c r="O457" s="10">
-        <v>104.1574</v>
+        <v>104.9689</v>
       </c>
       <c r="P457" s="10">
-        <v>104.9689</v>
+        <v>105.6037</v>
       </c>
       <c r="Q457" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R457" s="13">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="S457" s="8">
-        <v>0.65200000000000002</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
@@ -39419,19 +39419,19 @@
         <v>19.606999999999999</v>
       </c>
       <c r="O459" s="10">
-        <v>101.7491</v>
+        <v>102.19119999999999</v>
       </c>
       <c r="P459" s="10">
         <v>102.19119999999999</v>
       </c>
       <c r="Q459" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R459" s="13">
         <v>1.4</v>
       </c>
       <c r="S459" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
@@ -39472,19 +39472,19 @@
         <v>80.393000000000001</v>
       </c>
       <c r="O460" s="10">
-        <v>103.7242</v>
+        <v>104.4522</v>
       </c>
       <c r="P460" s="10">
-        <v>104.4522</v>
+        <v>105.10469999999999</v>
       </c>
       <c r="Q460" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R460" s="13">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="S460" s="8">
-        <v>0.56599999999999995</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
@@ -39546,19 +39546,19 @@
         <v>2.569</v>
       </c>
       <c r="O462" s="10">
-        <v>159.59129999999999</v>
+        <v>163.7423</v>
       </c>
       <c r="P462" s="10">
-        <v>163.7423</v>
+        <v>175.4924</v>
       </c>
       <c r="Q462" s="9">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="R462" s="13">
-        <v>40.6</v>
+        <v>48.4</v>
       </c>
       <c r="S462" s="8">
-        <v>8.1000000000000003E-2</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
@@ -39599,19 +39599,19 @@
         <v>97.430999999999997</v>
       </c>
       <c r="O463" s="10">
-        <v>102.05459999999999</v>
+        <v>102.6538</v>
       </c>
       <c r="P463" s="10">
-        <v>102.6538</v>
+        <v>102.9461</v>
       </c>
       <c r="Q463" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R463" s="13">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S463" s="8">
-        <v>0.56899999999999995</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
@@ -39673,19 +39673,19 @@
         <v>1.837</v>
       </c>
       <c r="O465" s="10">
-        <v>101.2848</v>
+        <v>101.78870000000001</v>
       </c>
       <c r="P465" s="10">
-        <v>101.78870000000001</v>
+        <v>101.9234</v>
       </c>
       <c r="Q465" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R465" s="13">
         <v>1.2</v>
       </c>
       <c r="S465" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
@@ -39726,19 +39726,19 @@
         <v>98.162999999999997</v>
       </c>
       <c r="O466" s="10">
-        <v>103.3734</v>
+        <v>104.0483</v>
       </c>
       <c r="P466" s="10">
-        <v>104.0483</v>
+        <v>104.58</v>
       </c>
       <c r="Q466" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R466" s="13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="S466" s="8">
-        <v>0.64100000000000001</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
@@ -39800,19 +39800,19 @@
         <v>2.2029999999999998</v>
       </c>
       <c r="O468" s="10">
-        <v>101.22880000000001</v>
+        <v>103.5889</v>
       </c>
       <c r="P468" s="10">
-        <v>103.5889</v>
+        <v>101.60120000000001</v>
       </c>
       <c r="Q468" s="9">
-        <v>2.2999999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="R468" s="13">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="S468" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
@@ -39853,19 +39853,19 @@
         <v>97.796999999999997</v>
       </c>
       <c r="O469" s="10">
-        <v>103.3806</v>
+        <v>104.01390000000001</v>
       </c>
       <c r="P469" s="10">
-        <v>104.01390000000001</v>
+        <v>104.5955</v>
       </c>
       <c r="Q469" s="9">
         <v>0.6</v>
       </c>
       <c r="R469" s="13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="S469" s="8">
-        <v>0.59899999999999998</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
@@ -39927,19 +39927,19 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="O471" s="10">
-        <v>102.5698</v>
+        <v>104.0205</v>
       </c>
       <c r="P471" s="10">
-        <v>104.0205</v>
+        <v>102.8904</v>
       </c>
       <c r="Q471" s="9">
-        <v>1.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R471" s="13">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="S471" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
@@ -39980,19 +39980,19 @@
         <v>97.308999999999997</v>
       </c>
       <c r="O472" s="10">
-        <v>103.35680000000001</v>
+        <v>104.0069</v>
       </c>
       <c r="P472" s="10">
-        <v>104.0069</v>
+        <v>104.57729999999999</v>
       </c>
       <c r="Q472" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R472" s="13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="S472" s="8">
-        <v>0.61199999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
@@ -40054,19 +40054,19 @@
         <v>25.576000000000001</v>
       </c>
       <c r="O474" s="10">
-        <v>100.87090000000001</v>
+        <v>100.9148</v>
       </c>
       <c r="P474" s="10">
-        <v>100.9148</v>
+        <v>100.9674</v>
       </c>
       <c r="Q474" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R474" s="13">
         <v>0.9</v>
       </c>
       <c r="S474" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
@@ -40107,19 +40107,19 @@
         <v>74.424000000000007</v>
       </c>
       <c r="O475" s="10">
-        <v>104.2174</v>
+        <v>105.1091</v>
       </c>
       <c r="P475" s="10">
-        <v>105.1091</v>
+        <v>105.7988</v>
       </c>
       <c r="Q475" s="9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="R475" s="13">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="S475" s="8">
-        <v>0.63900000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
@@ -40181,19 +40181,19 @@
         <v>89.253</v>
       </c>
       <c r="O477" s="10">
-        <v>101.77290000000001</v>
+        <v>102.2796</v>
       </c>
       <c r="P477" s="10">
-        <v>102.2796</v>
+        <v>102.4335</v>
       </c>
       <c r="Q477" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R477" s="13">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S477" s="8">
-        <v>0.441</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
@@ -40234,19 +40234,19 @@
         <v>5.2809999999999997</v>
       </c>
       <c r="O478" s="10">
-        <v>101.5384</v>
+        <v>103.77200000000001</v>
       </c>
       <c r="P478" s="10">
-        <v>103.77200000000001</v>
+        <v>106.1735</v>
       </c>
       <c r="Q478" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R478" s="13">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S478" s="8">
-        <v>0.11600000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
@@ -40287,19 +40287,19 @@
         <v>5.4660000000000002</v>
       </c>
       <c r="O479" s="10">
-        <v>132.89940000000001</v>
+        <v>134.8982</v>
       </c>
       <c r="P479" s="10">
-        <v>134.8982</v>
+        <v>140.23490000000001</v>
       </c>
       <c r="Q479" s="9">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R479" s="13">
-        <v>24.8</v>
+        <v>28.8</v>
       </c>
       <c r="S479" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
@@ -40361,19 +40361,19 @@
         <v>66.394999999999996</v>
       </c>
       <c r="O481" s="10">
-        <v>102.5202</v>
+        <v>103.2042</v>
       </c>
       <c r="P481" s="10">
-        <v>103.2042</v>
+        <v>103.4151</v>
       </c>
       <c r="Q481" s="9">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="R481" s="13">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S481" s="8">
-        <v>0.441</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
